--- a/docs/10-31-2013-energy-cost-calculator-generic-combined-heat-power-model.xlsx
+++ b/docs/10-31-2013-energy-cost-calculator-generic-combined-heat-power-model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkai\Documents\Github\technoeconomic-assessment\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADAF7F2C-21AC-4762-8927-CE50F4C0B045}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD2B81F-2E1D-4820-B5C9-188397D03169}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHP_EconomicExample" sheetId="1" r:id="rId1"/>
@@ -631,9 +631,6 @@
     <t>Income--Capacity</t>
   </si>
   <si>
-    <t>Income--Heat sales</t>
-  </si>
-  <si>
     <t>Conventional</t>
   </si>
   <si>
@@ -727,25 +724,28 @@
     <t>Interest Rate on Debt:  Interest rate applied to debt portion of investment.  Value must be non-zero.</t>
   </si>
   <si>
-    <t>differences from generic-power-only are hightlighted in:</t>
-  </si>
-  <si>
     <t>Diff</t>
+  </si>
+  <si>
+    <t>different variables from generic-power-only are hightlighted in:</t>
+  </si>
+  <si>
+    <t>Income--Heat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="9"/>
       <name val="Helv"/>
@@ -783,11 +783,6 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1299,7 +1294,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1338,7 +1333,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1387,7 +1382,7 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1411,7 +1406,7 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="5" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1451,7 +1446,7 @@
     <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1478,7 +1473,7 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1488,10 +1483,10 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4624,7 +4619,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor indexed="12"/>
   </sheetPr>
@@ -4639,7 +4634,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor indexed="13"/>
   </sheetPr>
@@ -5702,14 +5697,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor indexed="52"/>
   </sheetPr>
   <dimension ref="A1:BD251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12"/>
@@ -5720,7 +5715,7 @@
     <col min="4" max="4" width="13.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" style="2" customWidth="1"/>
     <col min="10" max="11" width="11.1640625" style="2" customWidth="1"/>
@@ -5774,8 +5769,8 @@
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
-      <c r="H6" s="136" t="s">
-        <v>223</v>
+      <c r="H6" s="137" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5793,7 +5788,7 @@
     </row>
     <row r="10" spans="1:9" ht="12.75" thickBot="1">
       <c r="B10" s="88" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" s="89"/>
       <c r="D10" s="90" t="s">
@@ -5890,7 +5885,7 @@
     </row>
     <row r="18" spans="1:9" ht="12.75" thickBot="1">
       <c r="B18" s="97" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C18" s="86"/>
       <c r="D18" s="87"/>
@@ -5949,7 +5944,7 @@
       <c r="A24" s="17"/>
       <c r="B24" s="31"/>
       <c r="D24" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -6443,7 +6438,7 @@
         <v>166</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6508,7 +6503,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B80" s="14">
         <v>2.1</v>
@@ -6518,8 +6513,8 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="11" t="s">
-        <v>194</v>
+      <c r="A81" s="134" t="s">
+        <v>193</v>
       </c>
       <c r="B81" s="14">
         <v>2.1</v>
@@ -6579,7 +6574,7 @@
         <v>5</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -7115,7 +7110,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="99" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>181</v>
@@ -8660,7 +8655,7 @@
     </row>
     <row r="161" spans="1:35">
       <c r="A161" s="132" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="B161" s="44">
         <f>TotalIncomeFromHeatSales</f>
@@ -9154,7 +9149,7 @@
       <c r="AH165" s="4"/>
     </row>
     <row r="166" spans="1:35">
-      <c r="A166" s="137" t="s">
+      <c r="A166" s="136" t="s">
         <v>41</v>
       </c>
       <c r="B166" s="61">
@@ -9796,7 +9791,7 @@
     </row>
     <row r="186" spans="1:56" s="3" customFormat="1" ht="15">
       <c r="A186" s="100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -9822,7 +9817,7 @@
     </row>
     <row r="187" spans="1:56">
       <c r="A187" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -9875,7 +9870,7 @@
       <c r="F189" s="139"/>
       <c r="G189" s="140"/>
       <c r="I189" s="138" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J189" s="139"/>
       <c r="K189" s="139"/>
@@ -9883,7 +9878,7 @@
       <c r="M189" s="139"/>
       <c r="N189" s="140"/>
       <c r="P189" s="138" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q189" s="139"/>
       <c r="R189" s="139"/>
@@ -9891,7 +9886,7 @@
       <c r="T189" s="139"/>
       <c r="U189" s="140"/>
       <c r="W189" s="138" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X189" s="139"/>
       <c r="Y189" s="139"/>
@@ -9899,7 +9894,7 @@
       <c r="AA189" s="139"/>
       <c r="AB189" s="140"/>
       <c r="AD189" s="138" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AE189" s="139"/>
       <c r="AF189" s="139"/>
@@ -9907,7 +9902,7 @@
       <c r="AH189" s="139"/>
       <c r="AI189" s="140"/>
       <c r="AK189" s="138" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL189" s="139"/>
       <c r="AM189" s="139"/>
@@ -9915,7 +9910,7 @@
       <c r="AO189" s="139"/>
       <c r="AP189" s="140"/>
       <c r="AR189" s="102" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AS189" s="101"/>
       <c r="AT189" s="101"/>
@@ -9926,7 +9921,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="AY189" s="138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AZ189" s="139"/>
       <c r="BA189" s="139"/>
@@ -9937,285 +9932,285 @@
     <row r="190" spans="1:56" ht="36">
       <c r="A190" s="108"/>
       <c r="B190" s="109" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C190" s="110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D190" s="110" t="s">
         <v>129</v>
       </c>
       <c r="E190" s="110" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F190" s="110" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G190" s="103" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I190" s="109" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J190" s="110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K190" s="110" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L190" s="110" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M190" s="110" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N190" s="103" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P190" s="109" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q190" s="110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R190" s="110" t="s">
+        <v>209</v>
+      </c>
+      <c r="S190" s="110" t="s">
+        <v>204</v>
+      </c>
+      <c r="T190" s="110" t="s">
+        <v>202</v>
+      </c>
+      <c r="U190" s="103" t="s">
+        <v>218</v>
+      </c>
+      <c r="W190" s="109" t="s">
+        <v>197</v>
+      </c>
+      <c r="X190" s="110" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y190" s="110" t="s">
         <v>210</v>
       </c>
-      <c r="S190" s="110" t="s">
-        <v>205</v>
-      </c>
-      <c r="T190" s="110" t="s">
-        <v>203</v>
-      </c>
-      <c r="U190" s="103" t="s">
-        <v>219</v>
-      </c>
-      <c r="W190" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="X190" s="110" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y190" s="110" t="s">
+      <c r="Z190" s="110" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA190" s="110" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB190" s="103" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD190" s="109" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE190" s="110" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF190" s="110" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG190" s="110" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH190" s="110" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI190" s="103" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK190" s="109" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL190" s="110" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM190" s="110" t="s">
+        <v>214</v>
+      </c>
+      <c r="AN190" s="110" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO190" s="110" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP190" s="103" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR190" s="109" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS190" s="110" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT190" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="Z190" s="110" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA190" s="110" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB190" s="103" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD190" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE190" s="110" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF190" s="110" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG190" s="110" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH190" s="110" t="s">
-        <v>203</v>
-      </c>
-      <c r="AI190" s="103" t="s">
-        <v>219</v>
-      </c>
-      <c r="AK190" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="AL190" s="110" t="s">
-        <v>201</v>
-      </c>
-      <c r="AM190" s="110" t="s">
+      <c r="AU190" s="110" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV190" s="110" t="s">
+        <v>202</v>
+      </c>
+      <c r="AW190" s="103" t="s">
+        <v>218</v>
+      </c>
+      <c r="AY190" s="109" t="s">
+        <v>197</v>
+      </c>
+      <c r="AZ190" s="110" t="s">
+        <v>200</v>
+      </c>
+      <c r="BA190" s="110" t="s">
         <v>215</v>
       </c>
-      <c r="AN190" s="110" t="s">
-        <v>205</v>
-      </c>
-      <c r="AO190" s="110" t="s">
-        <v>203</v>
-      </c>
-      <c r="AP190" s="103" t="s">
-        <v>219</v>
-      </c>
-      <c r="AR190" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="AS190" s="110" t="s">
-        <v>201</v>
-      </c>
-      <c r="AT190" s="110" t="s">
-        <v>212</v>
-      </c>
-      <c r="AU190" s="110" t="s">
-        <v>205</v>
-      </c>
-      <c r="AV190" s="110" t="s">
-        <v>203</v>
-      </c>
-      <c r="AW190" s="103" t="s">
-        <v>219</v>
-      </c>
-      <c r="AY190" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="AZ190" s="110" t="s">
-        <v>201</v>
-      </c>
-      <c r="BA190" s="110" t="s">
+      <c r="BB190" s="110" t="s">
         <v>216</v>
       </c>
-      <c r="BB190" s="110" t="s">
+      <c r="BC190" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="BC190" s="110" t="s">
+      <c r="BD190" s="103" t="s">
         <v>218</v>
-      </c>
-      <c r="BD190" s="103" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="191" spans="1:56">
       <c r="A191" s="108"/>
       <c r="B191" s="109"/>
       <c r="C191" s="110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D191" s="110" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E191" s="110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F191" s="110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G191" s="90" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I191" s="109"/>
       <c r="J191" s="110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K191" s="110" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L191" s="110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M191" s="110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N191" s="90" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P191" s="109"/>
       <c r="Q191" s="110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R191" s="110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S191" s="110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T191" s="110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U191" s="90" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W191" s="109"/>
       <c r="X191" s="110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y191" s="110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z191" s="110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA191" s="110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AB191" s="90" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AD191" s="109"/>
       <c r="AE191" s="110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF191" s="110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG191" s="110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH191" s="110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AI191" s="90" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AK191" s="109"/>
       <c r="AL191" s="110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AM191" s="110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AN191" s="110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO191" s="110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AP191" s="90" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AR191" s="109"/>
       <c r="AS191" s="110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AT191" s="110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AU191" s="110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AV191" s="110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AW191" s="90" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY191" s="109"/>
       <c r="AZ191" s="110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BA191" s="110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BB191" s="110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BC191" s="110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BD191" s="90" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="192" spans="1:56" ht="21" customHeight="1">
       <c r="A192" s="108"/>
       <c r="B192" s="111" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C192" s="112"/>
       <c r="D192" s="112"/>
@@ -10229,7 +10224,7 @@
       </c>
       <c r="G192" s="104"/>
       <c r="I192" s="111" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J192" s="112"/>
       <c r="K192" s="112"/>
@@ -10243,7 +10238,7 @@
       </c>
       <c r="N192" s="104"/>
       <c r="P192" s="111" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q192" s="112"/>
       <c r="R192" s="112"/>
@@ -10257,7 +10252,7 @@
       </c>
       <c r="U192" s="104"/>
       <c r="W192" s="111" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="X192" s="112"/>
       <c r="Y192" s="112"/>
@@ -10271,7 +10266,7 @@
       </c>
       <c r="AB192" s="104"/>
       <c r="AD192" s="111" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AE192" s="112"/>
       <c r="AF192" s="112"/>
@@ -10285,7 +10280,7 @@
       </c>
       <c r="AI192" s="104"/>
       <c r="AK192" s="111" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AL192" s="112"/>
       <c r="AM192" s="112"/>
@@ -10299,7 +10294,7 @@
       </c>
       <c r="AP192" s="104"/>
       <c r="AR192" s="111" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS192" s="112"/>
       <c r="AT192" s="112"/>
@@ -10313,7 +10308,7 @@
       </c>
       <c r="AW192" s="104"/>
       <c r="AY192" s="111" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AZ192" s="112"/>
       <c r="BA192" s="112"/>
@@ -10362,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="L193" s="116">
-        <f t="dataTable" ref="L193:M213" dt2D="0" dtr="0" r1="B54"/>
+        <f t="dataTable" ref="L193:M213" dt2D="0" dtr="0" r1="B54" ca="1"/>
         <v>2.9236190441176872E-2</v>
       </c>
       <c r="M193" s="116">
@@ -10428,7 +10423,7 @@
         <v>1</v>
       </c>
       <c r="AG193" s="116">
-        <f t="dataTable" ref="AG193:AH213" dt2D="0" dtr="0" r1="B87" ca="1"/>
+        <f t="dataTable" ref="AG193:AH213" dt2D="0" dtr="0" r1="B87"/>
         <v>4.6464398898748593E-2</v>
       </c>
       <c r="AH193" s="116">
@@ -12101,7 +12096,7 @@
     </row>
     <row r="203" spans="2:56">
       <c r="B203" s="114" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C203" s="115">
         <f>IF(ISERROR((D203-D203)/D203*100),"error",(D203-D203)/D203*100)</f>
@@ -12121,7 +12116,7 @@
         <v>0</v>
       </c>
       <c r="I203" s="114" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J203" s="115">
         <f t="shared" si="38"/>
@@ -12141,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="P203" s="114" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q203" s="115" t="str">
         <f t="shared" si="39"/>
@@ -12161,7 +12156,7 @@
         <v>0</v>
       </c>
       <c r="W203" s="114" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X203" s="115">
         <f t="shared" si="40"/>
@@ -12181,7 +12176,7 @@
         <v>0</v>
       </c>
       <c r="AD203" s="114" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AE203" s="115">
         <f t="shared" si="41"/>
@@ -12201,7 +12196,7 @@
         <v>0</v>
       </c>
       <c r="AK203" s="114" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AL203" s="115">
         <f t="shared" si="42"/>
@@ -12221,7 +12216,7 @@
         <v>0</v>
       </c>
       <c r="AR203" s="114" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AS203" s="115">
         <f t="shared" si="43"/>
@@ -12241,7 +12236,7 @@
         <v>0</v>
       </c>
       <c r="AY203" s="114" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AZ203" s="115">
         <f t="shared" si="44"/>

--- a/docs/10-31-2013-energy-cost-calculator-generic-combined-heat-power-model.xlsx
+++ b/docs/10-31-2013-energy-cost-calculator-generic-combined-heat-power-model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkai\Documents\Github\technoeconomic-assessment\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD2B81F-2E1D-4820-B5C9-188397D03169}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E696BDEB-4684-467F-B866-DE4A827FC034}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHP_EconomicExample" sheetId="1" r:id="rId1"/>
@@ -47,11 +47,12 @@
     <definedName name="TotalHeatProductionRate">CHP_EconomicExample!$B$43</definedName>
     <definedName name="TotalIncomeFromHeatSales">CHP_EconomicExample!$B$48</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterate="1" iterateCount="1000" iterateDelta="10000" calcOnSave="0"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1000" iterateDelta="10000" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -5703,8 +5704,8 @@
   </sheetPr>
   <dimension ref="A1:BD251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12"/>
@@ -10423,7 +10424,7 @@
         <v>1</v>
       </c>
       <c r="AG193" s="116">
-        <f t="dataTable" ref="AG193:AH213" dt2D="0" dtr="0" r1="B87"/>
+        <f t="dataTable" ref="AG193:AH213" dt2D="0" dtr="0" r1="B87" ca="1"/>
         <v>4.6464398898748593E-2</v>
       </c>
       <c r="AH193" s="116">
@@ -10489,7 +10490,7 @@
         <v>40</v>
       </c>
       <c r="BB193" s="116">
-        <f t="dataTable" ref="BB193:BC213" dt2D="0" dtr="0" r1="B29" ca="1"/>
+        <f t="dataTable" ref="BB193:BC213" dt2D="0" dtr="0" r1="B29"/>
         <v>0.11991875275942473</v>
       </c>
       <c r="BC193" s="116">

--- a/docs/10-31-2013-energy-cost-calculator-generic-combined-heat-power-model.xlsx
+++ b/docs/10-31-2013-energy-cost-calculator-generic-combined-heat-power-model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkai\Documents\Github\technoeconomic-assessment\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E696BDEB-4684-467F-B866-DE4A827FC034}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B987DD-45E8-4A6F-B1DC-A9AF6C439FF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHP_EconomicExample" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <definedName name="TotalHeatProductionRate">CHP_EconomicExample!$B$43</definedName>
     <definedName name="TotalIncomeFromHeatSales">CHP_EconomicExample!$B$48</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateCount="1000" iterateDelta="10000" calcOnSave="0"/>
+  <calcPr calcId="181029" iterate="1" iterateCount="1000" iterateDelta="10000" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="225">
   <si>
     <t>Fuel Heating Value (kJ/kg)</t>
   </si>
@@ -732,6 +732,9 @@
   </si>
   <si>
     <t>Income--Heat</t>
+  </si>
+  <si>
+    <t>Moisture content on a wet basis</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1497,6 +1500,7 @@
     <xf numFmtId="3" fontId="5" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1653,67 +1657,67 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>5.7757529330713887E-3</c:v>
+                  <c:v>2.6666581222568889E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8353138552288721E-3</c:v>
+                  <c:v>3.0726142144726392E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3894874777386356E-2</c:v>
+                  <c:v>3.4785703066883861E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7954435699543837E-2</c:v>
+                  <c:v>3.8845263989041354E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2013996621701309E-2</c:v>
+                  <c:v>4.2904824911198833E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6073557543858795E-2</c:v>
+                  <c:v>4.6964385833356305E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0133118466016268E-2</c:v>
+                  <c:v>5.1023946755513791E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4192679388173761E-2</c:v>
+                  <c:v>5.5083507677671263E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8252240310331233E-2</c:v>
+                  <c:v>5.9143068599828763E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2311801232488712E-2</c:v>
+                  <c:v>6.3202629521986228E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.6371362154646205E-2</c:v>
+                  <c:v>6.7262190444143707E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3910546724367223E-2</c:v>
+                  <c:v>7.4801375013864732E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1449731294088275E-2</c:v>
+                  <c:v>8.2340559583585771E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.89889158638093E-2</c:v>
+                  <c:v>8.9879744153306809E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.6528100433530338E-2</c:v>
+                  <c:v>9.7418928723027862E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.4067285003251391E-2</c:v>
+                  <c:v>0.1049581132927489</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.1606469572972429E-2</c:v>
+                  <c:v>0.11249729786246995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.9145654142693454E-2</c:v>
+                  <c:v>0.12003648243219099</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.10668483871241455</c:v>
+                  <c:v>0.12757566700191197</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.11422402328213556</c:v>
+                  <c:v>0.13511485157163308</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.12176320785185656</c:v>
+                  <c:v>0.14265403614135408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1836,64 +1840,64 @@
                   <c:v>2.5480533865148688E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7569616694098433E-2</c:v>
+                  <c:v>2.9658699523048181E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9658699523048192E-2</c:v>
+                  <c:v>3.3836865180947709E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1747782351997947E-2</c:v>
+                  <c:v>3.8015030838847191E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3836865180947709E-2</c:v>
+                  <c:v>4.2193196496746702E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5925948009897443E-2</c:v>
+                  <c:v>4.6371362154646205E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8015030838847191E-2</c:v>
+                  <c:v>5.0549527812545694E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0104113667796946E-2</c:v>
+                  <c:v>5.4727693470445191E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2193196496746702E-2</c:v>
+                  <c:v>5.8905859128344687E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4282279325696464E-2</c:v>
+                  <c:v>6.3084024786244211E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.6371362154646205E-2</c:v>
+                  <c:v>6.7262190444143707E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3756577869686233E-2</c:v>
+                  <c:v>8.2032621874223804E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1141793584726281E-2</c:v>
+                  <c:v>9.6803053304303915E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.852700929976635E-2</c:v>
+                  <c:v>0.11157348473438405</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.5912225014806378E-2</c:v>
+                  <c:v>0.12634391616446414</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.3297440729846461E-2</c:v>
+                  <c:v>0.14111434759454425</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.0682656444886517E-2</c:v>
+                  <c:v>0.15588477902462436</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.8067872159926558E-2</c:v>
+                  <c:v>0.17065521045470447</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.10545308787496659</c:v>
+                  <c:v>0.18542564188478453</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.11283830359000666</c:v>
+                  <c:v>0.20019607331486466</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.12022351930504668</c:v>
+                  <c:v>0.21496650474494472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2011,67 +2015,67 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>8.2454583113679716E-2</c:v>
+                  <c:v>0.10334541140317727</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8846261017776365E-2</c:v>
+                  <c:v>9.9737089307273874E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5237938921873013E-2</c:v>
+                  <c:v>9.6128767211370522E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1629616825969647E-2</c:v>
+                  <c:v>9.2520445115467156E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8021294730066295E-2</c:v>
+                  <c:v>8.8912123019563805E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4412972634162971E-2</c:v>
+                  <c:v>8.5303800923660494E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0804650538259612E-2</c:v>
+                  <c:v>8.1695478827757101E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.719632844235626E-2</c:v>
+                  <c:v>7.8087156731853777E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3588006346452902E-2</c:v>
+                  <c:v>7.4478834635950439E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9979684250549557E-2</c:v>
+                  <c:v>7.0870512540047059E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.6371362154646205E-2</c:v>
+                  <c:v>6.7262190444143707E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5168588122678426E-2</c:v>
+                  <c:v>6.6059416412175928E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.3965814090710625E-2</c:v>
+                  <c:v>6.4856642380208121E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.2763040058742853E-2</c:v>
+                  <c:v>6.3653868348240383E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.156026602677506E-2</c:v>
+                  <c:v>6.2451094316272583E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0357491994807287E-2</c:v>
+                  <c:v>6.1248320284304818E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.9154717962839494E-2</c:v>
+                  <c:v>6.0045546252337011E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.7951943930871708E-2</c:v>
+                  <c:v>5.8842772220369231E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.6749169898903936E-2</c:v>
+                  <c:v>5.7639998188401431E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.5546395866936149E-2</c:v>
+                  <c:v>5.6437224156433645E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.434362183496837E-2</c:v>
+                  <c:v>5.5234450124465879E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2189,67 +2193,67 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>4.0495621070926469E-2</c:v>
+                  <c:v>6.1386449360423985E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1010403484086272E-2</c:v>
+                  <c:v>6.1901231773583788E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1541734442140758E-2</c:v>
+                  <c:v>6.2432562731638282E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2089506226587026E-2</c:v>
+                  <c:v>6.2980334516084549E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2653591792471003E-2</c:v>
+                  <c:v>6.354442008196852E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3233845587258977E-2</c:v>
+                  <c:v>6.412467387675648E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3830104425804442E-2</c:v>
+                  <c:v>6.4720932715301965E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.444218841368601E-2</c:v>
+                  <c:v>6.5333016703183533E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5069901911134032E-2</c:v>
+                  <c:v>6.5960730200631562E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5713034529788948E-2</c:v>
+                  <c:v>6.6603862819286458E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.6371362154646205E-2</c:v>
+                  <c:v>6.7262190444143707E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.808207697795007E-2</c:v>
+                  <c:v>6.8972905267447565E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9882252119880517E-2</c:v>
+                  <c:v>7.0773080409378047E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.1767538605518998E-2</c:v>
+                  <c:v>7.2658366895016535E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.3733334469134732E-2</c:v>
+                  <c:v>7.4624162758632248E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.5774878271173556E-2</c:v>
+                  <c:v>7.6665706560671065E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.7887334461454255E-2</c:v>
+                  <c:v>7.8778162750951772E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.0065869011329036E-2</c:v>
+                  <c:v>8.0956697300826552E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.2305714433252765E-2</c:v>
+                  <c:v>8.3196542722750261E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.4602223912590379E-2</c:v>
+                  <c:v>8.5493052202087902E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.6950914773020592E-2</c:v>
+                  <c:v>8.7841743062518116E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2369,67 +2373,67 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3.0771255283204329E-2</c:v>
+                  <c:v>5.1662083572701807E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1931366510976854E-2</c:v>
+                  <c:v>5.2822194800474682E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3188641495063356E-2</c:v>
+                  <c:v>5.4079469784560866E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4541900916762798E-2</c:v>
+                  <c:v>5.543272920626028E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5988613774432139E-2</c:v>
+                  <c:v>5.6879442063929642E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7525083229791346E-2</c:v>
+                  <c:v>5.8415911519288828E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9146667963768089E-2</c:v>
+                  <c:v>6.0037496253265585E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0848019036265504E-2</c:v>
+                  <c:v>6.1738847325762986E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2623314306123157E-2</c:v>
+                  <c:v>6.3514142595620673E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4466476098043606E-2</c:v>
+                  <c:v>6.5357304387541088E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.6371362154646205E-2</c:v>
+                  <c:v>6.7262190444143707E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1364490112309237E-2</c:v>
+                  <c:v>7.2255318401806753E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.6619326037874777E-2</c:v>
+                  <c:v>7.7510154327372308E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2063523395558366E-2</c:v>
+                  <c:v>8.2954351685055883E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.7640723279385015E-2</c:v>
+                  <c:v>8.8531551568882524E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3308939825013755E-2</c:v>
+                  <c:v>9.4199768114511265E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.90377956380591E-2</c:v>
+                  <c:v>9.9928623927556581E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.4805711617611579E-2</c:v>
+                  <c:v>0.10569653990710903</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.0597523137554273E-2</c:v>
+                  <c:v>0.11148835142705173</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.6402635116770663E-2</c:v>
+                  <c:v>0.11729346340626827</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.10221366693238572</c:v>
+                  <c:v>0.12310449522188321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2547,67 +2551,67 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.9131995896792008E-2</c:v>
+                  <c:v>0.10269530905478207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7513339360747135E-2</c:v>
+                  <c:v>9.1792811020739495E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2751679025719092E-2</c:v>
+                  <c:v>8.4978749749462887E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6335806164910445E-2</c:v>
+                  <c:v>8.0316497300694678E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.894244408432232E-2</c:v>
+                  <c:v>7.692576824704507E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0923488903075365E-2</c:v>
+                  <c:v>7.4348814166271357E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2480024117809892E-2</c:v>
+                  <c:v>7.2324064531377741E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3735294452273213E-2</c:v>
+                  <c:v>7.0691201922592595E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.476904649241948E-2</c:v>
+                  <c:v>6.9346491538887139E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5635163066596075E-2</c:v>
+                  <c:v>6.8219842298485309E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.6371362154646205E-2</c:v>
+                  <c:v>6.7262190444143707E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.7555682426726816E-2</c:v>
+                  <c:v>6.572162006976813E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8466698020635003E-2</c:v>
+                  <c:v>6.4536565935633061E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.918922762959662E-2</c:v>
+                  <c:v>6.3596695415456969E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9776282936877976E-2</c:v>
+                  <c:v>6.2833050617813926E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0262700191482504E-2</c:v>
+                  <c:v>6.220031635690966E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0672314721675812E-2</c:v>
+                  <c:v>6.1667487505621871E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.1021985662084719E-2</c:v>
+                  <c:v>6.121263360818105E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.1323974201528774E-2</c:v>
+                  <c:v>6.0819805242209445E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.1587411012533176E-2</c:v>
+                  <c:v>6.0477125178276803E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.1819235406217044E-2</c:v>
+                  <c:v>6.017556672201603E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2725,67 +2729,67 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.10451409005905746</c:v>
+                  <c:v>0.12540491834855499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3408175740237312E-2</c:v>
+                  <c:v>0.11429900402973484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4342123235078045E-2</c:v>
+                  <c:v>0.10523295152457558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.680120105788947E-2</c:v>
+                  <c:v>9.769202934738698E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0430421977161206E-2</c:v>
+                  <c:v>9.1321250266658702E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4977035084057805E-2</c:v>
+                  <c:v>8.5867863373555287E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0256192698983205E-2</c:v>
+                  <c:v>8.11470209884807E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6129582222519417E-2</c:v>
+                  <c:v>7.7020410512016926E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2491649302478974E-2</c:v>
+                  <c:v>7.3382477591976483E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.926044180207037E-2</c:v>
+                  <c:v>7.0151270091567866E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.6371362154646205E-2</c:v>
+                  <c:v>6.7262190444143707E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5475135134925015E-2</c:v>
+                  <c:v>6.6365963424422525E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4609461309057977E-2</c:v>
+                  <c:v>6.5500289598555486E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.3772804482940665E-2</c:v>
+                  <c:v>6.4663632772438182E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.2963729749992054E-2</c:v>
+                  <c:v>6.385455803948957E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.218089527865259E-2</c:v>
+                  <c:v>6.3071723568150106E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.142304488618568E-2</c:v>
+                  <c:v>6.2313873175683161E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0689001312330268E-2</c:v>
+                  <c:v>6.1579829601827785E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.997766011704771E-2</c:v>
+                  <c:v>6.0868488406545213E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.9287984135834668E-2</c:v>
+                  <c:v>6.0178812425332198E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8618998434058027E-2</c:v>
+                  <c:v>5.9509826723555537E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3205,67 +3209,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-87.544569180845855</c:v>
+                  <c:v>-60.354277720536743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-78.790112262761255</c:v>
+                  <c:v>-54.318849948483027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-70.035655344676655</c:v>
+                  <c:v>-48.283422176429383</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-61.281198426592084</c:v>
+                  <c:v>-42.247994404375689</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-52.526741508507527</c:v>
+                  <c:v>-36.212566632322016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-43.772284590422927</c:v>
+                  <c:v>-30.177138860268361</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-35.017827672338363</c:v>
+                  <c:v>-24.141711088214677</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-26.263370754253749</c:v>
+                  <c:v>-18.106283316161019</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-17.508913836169189</c:v>
+                  <c:v>-12.070855544107321</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8.7544569180846086</c:v>
+                  <c:v>-6.0354277720536693</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.258277133585615</c:v>
+                  <c:v>11.208651576671089</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32.516554267171301</c:v>
+                  <c:v>22.4173031533422</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48.774831400756938</c:v>
+                  <c:v>33.625954730013305</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>65.033108534342603</c:v>
+                  <c:v>44.834606306684442</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>81.291385667928282</c:v>
+                  <c:v>56.043257883355544</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>97.549662801513946</c:v>
+                  <c:v>67.251909460026681</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>113.80793993509957</c:v>
+                  <c:v>78.460561036697797</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>130.06621706868535</c:v>
+                  <c:v>89.669212613368813</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>146.32449420227096</c:v>
+                  <c:v>100.87786419004003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>162.58277133585653</c:v>
+                  <c:v>112.08651576671109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3385,67 +3389,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-45.051142167934671</c:v>
+                  <c:v>-62.117597275830029</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-40.54602795114122</c:v>
+                  <c:v>-55.905837548247042</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-36.04091373434774</c:v>
+                  <c:v>-49.694077820663999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-31.535799517554263</c:v>
+                  <c:v>-43.482318093081027</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-27.030685300760776</c:v>
+                  <c:v>-37.270558365498005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-22.525571083967343</c:v>
+                  <c:v>-31.058798637915004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-18.020456867173884</c:v>
+                  <c:v>-24.847038910332021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-13.515342650380409</c:v>
+                  <c:v>-18.635279182749027</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.0102284335869349</c:v>
+                  <c:v>-12.42351945516603</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.5051142167934444</c:v>
+                  <c:v>-6.2117597275829946</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.926242775467102</c:v>
+                  <c:v>21.959486202498642</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31.852485550934251</c:v>
+                  <c:v>43.918972404997305</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47.778728326401442</c:v>
+                  <c:v>65.878458607496</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63.704971101868544</c:v>
+                  <c:v>87.837944809994625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>79.631213877335767</c:v>
+                  <c:v>109.79743101249329</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>95.557456652802927</c:v>
+                  <c:v>131.75691721499194</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>111.48369942827007</c:v>
+                  <c:v>153.71640341749062</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>127.40994220373719</c:v>
+                  <c:v>175.67588961998919</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>143.33618497920435</c:v>
+                  <c:v>197.63537582248787</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>159.26242775467145</c:v>
+                  <c:v>219.59486202498644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3563,67 +3567,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>77.813588565066837</c:v>
+                  <c:v>53.645622779707146</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.032229708560152</c:v>
+                  <c:v>48.281060501736377</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.250870852053467</c:v>
+                  <c:v>42.916498223765672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.469511995546746</c:v>
+                  <c:v>37.551935945794938</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.688153139040068</c:v>
+                  <c:v>32.187373667824232</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.90679428253344</c:v>
+                  <c:v>26.822811389853584</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.125435426026744</c:v>
+                  <c:v>21.458249111882814</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.344076569520055</c:v>
+                  <c:v>16.093686833912145</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.562717713013354</c:v>
+                  <c:v>10.729124555941457</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.781358856506686</c:v>
+                  <c:v>5.3645622779707089</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.5937862855022185</c:v>
+                  <c:v>-1.7881874259902293</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5.1875725710044822</c:v>
+                  <c:v>-3.5763748519804994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-7.781358856506686</c:v>
+                  <c:v>-5.3645622779706672</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-10.375145142008932</c:v>
+                  <c:v>-7.1527497039609269</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-12.968931427511137</c:v>
+                  <c:v>-8.940937129951136</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-15.562717713013384</c:v>
+                  <c:v>-10.729124555941407</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-18.156503998515618</c:v>
+                  <c:v>-12.517311981931636</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-20.750290284017822</c:v>
+                  <c:v>-14.305499407921896</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-23.344076569520055</c:v>
+                  <c:v>-16.093686833912134</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-25.937862855022274</c:v>
+                  <c:v>-17.881874259902343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3741,67 +3745,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-12.671055605665474</c:v>
+                  <c:v>-8.7355779598035728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-11.560925583081644</c:v>
+                  <c:v>-7.9702409855530956</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10.415108567220598</c:v>
+                  <c:v>-7.1803009694072868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.2338368533997368</c:v>
+                  <c:v>-6.3659180585486945</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.0173844144940603</c:v>
+                  <c:v>-5.5272811331687484</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.7660651350369321</c:v>
+                  <c:v>-4.664606589035639</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.4802309243510976</c:v>
+                  <c:v>-3.7781370366641114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.1602697253673426</c:v>
+                  <c:v>-2.8681399285713285</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.8066034359134573</c:v>
+                  <c:v>-1.9349061261882516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.4196857592014793</c:v>
+                  <c:v>-0.97874841795992673</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.6891623273836882</c:v>
+                  <c:v>2.5433528286957592</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.5712461357629897</c:v>
+                  <c:v>5.2197080440754826</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.636872845953523</c:v>
+                  <c:v>8.0225999409786617</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.876118303224979</c:v>
+                  <c:v>10.945186687909185</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.278714447005221</c:v>
+                  <c:v>13.980389360552101</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.834233396903137</c:v>
+                  <c:v>17.121018852889176</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.532250553719614</c:v>
+                  <c:v>20.359888320995321</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.362484814369445</c:v>
+                  <c:v>23.689909848890302</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>39.314915307307878</c:v>
+                  <c:v>27.104174927344332</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44.379875125821393</c:v>
+                  <c:v>30.596019074734432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3921,67 +3925,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-33.641683458459312</c:v>
+                  <c:v>-23.192980734691712</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-31.139899655120502</c:v>
+                  <c:v>-21.468220925187349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-28.428581881246284</c:v>
+                  <c:v>-19.599005879135202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-25.51027334162136</c:v>
+                  <c:v>-17.5870889124655</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-22.390432149886198</c:v>
+                  <c:v>-15.436232914294063</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-19.077030550349058</c:v>
+                  <c:v>-13.151934045622649</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-15.58007756335498</c:v>
+                  <c:v>-10.741092645321594</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-11.911108196392041</c:v>
+                  <c:v>-8.2116610861304782</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.0826779166492742</c:v>
+                  <c:v>-5.5722952579659317</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.1078932515501663</c:v>
+                  <c:v>-2.8320309582907313</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.767697401277964</c:v>
+                  <c:v>7.4233799474750546</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.099768924303149</c:v>
+                  <c:v>15.235846194659358</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33.840199018910802</c:v>
+                  <c:v>23.329839746957628</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45.867449512926839</c:v>
+                  <c:v>31.621570728359572</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58.09097774728302</c:v>
+                  <c:v>40.048617941958383</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>70.445274767801621</c:v>
+                  <c:v>48.565818727744144</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>82.88380517007181</c:v>
+                  <c:v>57.141091018857345</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95.373866386361485</c:v>
+                  <c:v>65.751889272227288</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>107.89261008825368</c:v>
+                  <c:v>74.382461575752345</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120.424119937448</c:v>
+                  <c:v>83.021835014594757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4099,67 +4103,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-58.741785861308657</c:v>
+                  <c:v>52.679103039415509</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-40.667390211675247</c:v>
+                  <c:v>36.470148258056895</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-29.370892930654357</c:v>
+                  <c:v>26.339551519707754</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-21.641710580482144</c:v>
+                  <c:v>19.40809059346887</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-16.020487053084207</c:v>
+                  <c:v>14.367028101658766</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-11.748357172261731</c:v>
+                  <c:v>10.535820607883069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.3916836944726629</c:v>
+                  <c:v>7.5255861484879034</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.6846889543202037</c:v>
+                  <c:v>5.0979777134918445</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.4553991683122898</c:v>
+                  <c:v>3.0987707670244409</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.5876158340894577</c:v>
+                  <c:v>1.4237595416058604</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.553990689622101</c:v>
+                  <c:v>-2.2903957843224085</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5185989124083878</c:v>
+                  <c:v>-4.0522386953396596</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0767364684111991</c:v>
+                  <c:v>-5.4495623833878284</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.3427232326635741</c:v>
+                  <c:v>-6.584887879926919</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.3916836944726327</c:v>
+                  <c:v>-7.5255861484879238</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.2750188202066255</c:v>
+                  <c:v>-8.3177531114866454</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.029085390955121</c:v>
+                  <c:v>-8.9939932018514455</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.680324702056094</c:v>
+                  <c:v>-9.5780187344392065</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.248427079825055</c:v>
+                  <c:v>-10.087487816058267</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.748357172261731</c:v>
+                  <c:v>-10.53582060788311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4277,67 +4281,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>125.38499022415628</c:v>
+                  <c:v>86.441918588266219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101.43504827122752</c:v>
+                  <c:v>69.930540880395114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.884075248428601</c:v>
+                  <c:v>56.451865200500414</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65.622050958436915</c:v>
+                  <c:v>45.240630289186036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.883444230685363</c:v>
+                  <c:v>35.76906976066185</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.123196871730009</c:v>
+                  <c:v>27.661413948245144</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.942684232634303</c:v>
+                  <c:v>20.64284623003368</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.043634722935309</c:v>
+                  <c:v>14.507734588240478</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.198420023595411</c:v>
+                  <c:v>9.0991493250806688</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.2303100732500099</c:v>
+                  <c:v>4.295250613081544</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.9327166123184316</c:v>
+                  <c:v>-1.3324380514569072</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.7995451583077844</c:v>
+                  <c:v>-2.6194520784323103</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.6037984457723669</c:v>
+                  <c:v>-3.8633259704252962</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-7.3485708556282319</c:v>
+                  <c:v>-5.0661930308141319</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-9.0367560521914676</c:v>
+                  <c:v>-6.2300481865417021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-10.67106299780052</c:v>
+                  <c:v>-7.3567590287886313</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-12.254030458207252</c:v>
+                  <c:v>-8.448075813163868</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-13.788040162106546</c:v>
+                  <c:v>-9.5056405320430244</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-15.275328758272877</c:v>
+                  <c:v>-10.530995157961339</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-16.717998696554197</c:v>
+                  <c:v>-11.525589145102161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5704,8 +5708,8 @@
   </sheetPr>
   <dimension ref="A1:BD251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="G159" sqref="G159"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12"/>
@@ -5924,6 +5928,14 @@
       <c r="H20" s="73"/>
       <c r="I20" s="74"/>
     </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="141">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
     <row r="22" spans="1:9">
       <c r="A22" s="18" t="s">
         <v>129</v>
@@ -6026,6 +6038,10 @@
       <c r="B32" s="12">
         <v>18608</v>
       </c>
+      <c r="C32" s="2">
+        <f>FuelHeatingValue*(1-B21)</f>
+        <v>9304</v>
+      </c>
       <c r="D32" s="2" t="s">
         <v>89</v>
       </c>
@@ -6035,8 +6051,8 @@
         <v>1</v>
       </c>
       <c r="B33" s="24">
-        <f>NetElectricalCapacity/(NetStationElectricalEfficiency/100)*3600/FuelHeatingValue/1000</f>
-        <v>24.183147033533967</v>
+        <f>NetElectricalCapacity/(NetStationElectricalEfficiency/100)*3600/C32/1000</f>
+        <v>48.366294067067933</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>116</v>
@@ -6047,7 +6063,7 @@
         <v>134</v>
       </c>
       <c r="B34" s="24">
-        <f>FuelConsumptionRate*1000*FuelHeatingValue/3600</f>
+        <f>FuelConsumptionRate*1000*C32/3600</f>
         <v>125000</v>
       </c>
     </row>
@@ -6075,7 +6091,7 @@
       </c>
       <c r="B37" s="24">
         <f>FuelConsumptionRate*AnnualHours</f>
-        <v>180067.71281169393</v>
+        <v>360135.42562338786</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6104,7 +6120,7 @@
       </c>
       <c r="B40" s="24">
         <f>AnnualFuelConsumption*FuelAshConcentration/100</f>
-        <v>9003.3856405846964</v>
+        <v>18006.771281169393</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6231,7 +6247,7 @@
       </c>
       <c r="C54" s="37">
         <f>B37*B54/B36</f>
-        <v>2.1329535683576963E-2</v>
+        <v>4.2659071367153925E-2</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>93</v>
@@ -6361,11 +6377,11 @@
       </c>
       <c r="B63" s="24">
         <f>B54*B37+B62</f>
-        <v>9770493.0674978513</v>
+        <v>13740986.134995703</v>
       </c>
       <c r="C63" s="37">
         <f>C54+C62</f>
-        <v>5.2487204230447768E-2</v>
+        <v>7.3816739914024723E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -8183,87 +8199,87 @@
       </c>
       <c r="B156" s="44">
         <f>B37*B54</f>
-        <v>3970493.0674978513</v>
+        <v>7940986.1349957027</v>
       </c>
       <c r="C156" s="44">
         <f t="shared" ref="C156:U156" si="21">$B$156*(1+$B$79/100)^(C147-1)</f>
-        <v>4053873.4219153058</v>
+        <v>8107746.8438306116</v>
       </c>
       <c r="D156" s="44">
         <f t="shared" si="21"/>
-        <v>4139004.7637755265</v>
+        <v>8278009.5275510531</v>
       </c>
       <c r="E156" s="44">
         <f t="shared" si="21"/>
-        <v>4225923.8638148122</v>
+        <v>8451847.7276296243</v>
       </c>
       <c r="F156" s="44">
         <f t="shared" si="21"/>
-        <v>4314668.2649549227</v>
+        <v>8629336.5299098454</v>
       </c>
       <c r="G156" s="44">
         <f t="shared" si="21"/>
-        <v>4405276.2985189753</v>
+        <v>8810552.5970379505</v>
       </c>
       <c r="H156" s="44">
         <f t="shared" si="21"/>
-        <v>4497787.1007878734</v>
+        <v>8995574.2015757468</v>
       </c>
       <c r="I156" s="44">
         <f t="shared" si="21"/>
-        <v>4592240.6299044183</v>
+        <v>9184481.2598088365</v>
       </c>
       <c r="J156" s="44">
         <f t="shared" si="21"/>
-        <v>4688677.68313241</v>
+        <v>9377355.3662648201</v>
       </c>
       <c r="K156" s="44">
         <f t="shared" si="21"/>
-        <v>4787139.9144781902</v>
+        <v>9574279.8289563805</v>
       </c>
       <c r="L156" s="44">
         <f t="shared" si="21"/>
-        <v>4887669.8526822319</v>
+        <v>9775339.7053644639</v>
       </c>
       <c r="M156" s="44">
         <f t="shared" si="21"/>
-        <v>4990310.9195885584</v>
+        <v>9980621.8391771168</v>
       </c>
       <c r="N156" s="44">
         <f t="shared" si="21"/>
-        <v>5095107.4488999164</v>
+        <v>10190214.897799833</v>
       </c>
       <c r="O156" s="44">
         <f t="shared" si="21"/>
-        <v>5202104.7053268142</v>
+        <v>10404209.410653628</v>
       </c>
       <c r="P156" s="44">
         <f t="shared" si="21"/>
-        <v>5311348.9041386778</v>
+        <v>10622697.808277356</v>
       </c>
       <c r="Q156" s="44">
         <f t="shared" si="21"/>
-        <v>5422887.2311255885</v>
+        <v>10845774.462251177</v>
       </c>
       <c r="R156" s="44">
         <f t="shared" si="21"/>
-        <v>5536767.8629792258</v>
+        <v>11073535.725958452</v>
       </c>
       <c r="S156" s="44">
         <f t="shared" si="21"/>
-        <v>5653039.9881017897</v>
+        <v>11306079.976203579</v>
       </c>
       <c r="T156" s="44">
         <f t="shared" si="21"/>
-        <v>5771753.827851925</v>
+        <v>11543507.65570385</v>
       </c>
       <c r="U156" s="60">
         <f t="shared" si="21"/>
-        <v>5892960.6582368156</v>
+        <v>11785921.316473631</v>
       </c>
       <c r="V156" s="65">
         <f t="shared" si="8"/>
-        <v>97439036.407711834</v>
+        <v>194878072.81542367</v>
       </c>
       <c r="Y156" s="4"/>
       <c r="Z156" s="4"/>
@@ -9155,87 +9171,87 @@
       </c>
       <c r="B166" s="61">
         <f>B148+B152+B156+B157+B165+B158-B160-B162-B161</f>
-        <v>14523650.465384662</v>
+        <v>18494143.532882512</v>
       </c>
       <c r="C166" s="61">
         <f t="shared" ref="C166:U166" si="28">C148+C152+C156+C157+C165+C158-C160-C162-C161</f>
-        <v>7605123.5608102316</v>
+        <v>11658996.982725538</v>
       </c>
       <c r="D166" s="61">
         <f t="shared" si="28"/>
-        <v>7751906.7835800741</v>
+        <v>11890911.547355602</v>
       </c>
       <c r="E166" s="61">
         <f t="shared" si="28"/>
-        <v>7903406.6946763061</v>
+        <v>12129330.558491113</v>
       </c>
       <c r="F166" s="61">
         <f t="shared" si="28"/>
-        <v>8059804.0565861836</v>
+        <v>12374472.321541103</v>
       </c>
       <c r="G166" s="61">
         <f t="shared" si="28"/>
-        <v>9477938.6337024346</v>
+        <v>13883214.932221411</v>
       </c>
       <c r="H166" s="61">
         <f t="shared" si="28"/>
-        <v>9671094.7544769235</v>
+        <v>14168881.855264792</v>
       </c>
       <c r="I166" s="61">
         <f t="shared" si="28"/>
-        <v>9870293.5835095868</v>
+        <v>14462534.213413998</v>
       </c>
       <c r="J166" s="61">
         <f t="shared" si="28"/>
-        <v>10075761.339159939</v>
+        <v>14764439.022292348</v>
       </c>
       <c r="K166" s="61">
         <f t="shared" si="28"/>
-        <v>10287733.956447367</v>
+        <v>15074873.870925557</v>
       </c>
       <c r="L166" s="61">
         <f t="shared" si="28"/>
-        <v>10506457.539404668</v>
+        <v>15394127.392086899</v>
       </c>
       <c r="M166" s="61">
         <f t="shared" si="28"/>
-        <v>10732188.835346237</v>
+        <v>15722499.754934795</v>
       </c>
       <c r="N166" s="61">
         <f t="shared" si="28"/>
-        <v>10965195.732131861</v>
+        <v>16060303.181031778</v>
       </c>
       <c r="O166" s="61">
         <f t="shared" si="28"/>
-        <v>11205757.779560728</v>
+        <v>16407862.484887542</v>
       </c>
       <c r="P166" s="61">
         <f t="shared" si="28"/>
-        <v>11454166.736086894</v>
+        <v>16765515.640225571</v>
       </c>
       <c r="Q166" s="61">
         <f t="shared" si="28"/>
-        <v>11710727.142106451</v>
+        <v>17133614.373232037</v>
       </c>
       <c r="R166" s="61">
         <f t="shared" si="28"/>
-        <v>11975756.921129078</v>
+        <v>17512524.784108303</v>
       </c>
       <c r="S166" s="61">
         <f t="shared" si="28"/>
-        <v>12249588.010211686</v>
+        <v>17902627.998313479</v>
       </c>
       <c r="T166" s="61">
         <f t="shared" si="28"/>
-        <v>12532567.021100547</v>
+        <v>18304320.848952472</v>
       </c>
       <c r="U166" s="52">
         <f t="shared" si="28"/>
-        <v>5764289.2610485973</v>
+        <v>11657249.919285409</v>
       </c>
       <c r="V166" s="56">
         <f t="shared" si="8"/>
-        <v>204323408.80646041</v>
+        <v>301762445.21417224</v>
       </c>
       <c r="Y166" s="4"/>
       <c r="Z166" s="4"/>
@@ -9360,83 +9376,83 @@
       </c>
       <c r="B170" s="24">
         <f t="shared" ref="B170:U170" si="29">B166*(1+$B$169)^-B147</f>
-        <v>12629261.274247533</v>
+        <v>16081863.941636968</v>
       </c>
       <c r="C170" s="24">
         <f t="shared" si="29"/>
-        <v>5750566.0195162436</v>
+        <v>8815876.7355202567</v>
       </c>
       <c r="D170" s="24">
         <f t="shared" si="29"/>
-        <v>5097004.5425035432</v>
+        <v>7818467.3607992791</v>
       </c>
       <c r="E170" s="24">
         <f t="shared" si="29"/>
-        <v>4518798.428922887</v>
+        <v>6934984.1136880545</v>
       </c>
       <c r="F170" s="24">
         <f t="shared" si="29"/>
-        <v>4007147.0679974318</v>
+        <v>6152299.7498628553</v>
       </c>
       <c r="G170" s="24">
         <f t="shared" si="29"/>
-        <v>4097574.4237058358</v>
+        <v>6002096.9351707045</v>
       </c>
       <c r="H170" s="24">
         <f t="shared" si="29"/>
-        <v>3635722.7348138033</v>
+        <v>5326607.5036882637</v>
       </c>
       <c r="I170" s="24">
         <f t="shared" si="29"/>
-        <v>3226616.4808317292</v>
+        <v>4727828.0886759236</v>
       </c>
       <c r="J170" s="24">
         <f t="shared" si="29"/>
-        <v>2864160.2214104533</v>
+        <v>4196975.0488964738</v>
       </c>
       <c r="K170" s="24">
         <f t="shared" si="29"/>
-        <v>2542970.4946843828</v>
+        <v>3726278.267608928</v>
       </c>
       <c r="L170" s="24">
         <f t="shared" si="29"/>
-        <v>2258291.8428344391</v>
+        <v>3308863.3525352743</v>
       </c>
       <c r="M170" s="24">
         <f t="shared" si="29"/>
-        <v>2005922.8304797201</v>
+        <v>2938647.6230054186</v>
       </c>
       <c r="N170" s="24">
         <f t="shared" si="29"/>
-        <v>1782150.856984139</v>
+        <v>2610248.2597395633</v>
       </c>
       <c r="O170" s="24">
         <f t="shared" si="29"/>
-        <v>1583694.7087030315</v>
+        <v>2318901.1854102383</v>
       </c>
       <c r="P170" s="24">
         <f t="shared" si="29"/>
-        <v>1407653.9244874881</v>
+        <v>2060389.413807539</v>
       </c>
       <c r="Q170" s="24">
         <f t="shared" si="29"/>
-        <v>1251464.159573334</v>
+        <v>1830979.754874005</v>
       </c>
       <c r="R170" s="24">
         <f t="shared" si="29"/>
-        <v>1112857.8312033301</v>
+        <v>1627366.8945094044</v>
       </c>
       <c r="S170" s="24">
         <f t="shared" si="29"/>
-        <v>989829.41562746977</v>
+        <v>1446623.9840061674</v>
       </c>
       <c r="T170" s="24">
         <f t="shared" si="29"/>
-        <v>880604.84195498447</v>
+        <v>1286158.9761416365</v>
       </c>
       <c r="U170" s="48">
         <f t="shared" si="29"/>
-        <v>352199.68174410454</v>
+        <v>712261.22174807976</v>
       </c>
       <c r="V170" s="67"/>
       <c r="Y170" s="4"/>
@@ -9456,7 +9472,7 @@
       </c>
       <c r="B171" s="56">
         <f>SUM(B170:U170)</f>
-        <v>61994491.782225884</v>
+        <v>89923718.411325037</v>
       </c>
       <c r="C171" s="43"/>
       <c r="D171" s="43"/>
@@ -9514,7 +9530,7 @@
       </c>
       <c r="B173" s="64">
         <f>B171*B172</f>
-        <v>9904331.1641852148</v>
+        <v>14366345.477745352</v>
       </c>
       <c r="C173" s="43"/>
       <c r="D173" s="43"/>
@@ -9537,7 +9553,7 @@
       <c r="U173" s="43"/>
       <c r="V173" s="65">
         <f>B173*B88</f>
-        <v>198086623.28370428</v>
+        <v>287326909.55490702</v>
       </c>
       <c r="Z173" s="4"/>
       <c r="AA173" s="4"/>
@@ -9556,7 +9572,7 @@
       </c>
       <c r="B174" s="92">
         <f>B173/B36</f>
-        <v>5.3206184067607923E-2</v>
+        <v>7.7176177694038964E-2</v>
       </c>
       <c r="C174" s="62"/>
       <c r="D174" s="62"/>
@@ -9579,7 +9595,7 @@
       <c r="U174" s="62"/>
       <c r="V174" s="56">
         <f>B174*B88*B36</f>
-        <v>198086623.28370428</v>
+        <v>287326909.55490702</v>
       </c>
       <c r="Z174" s="4"/>
       <c r="AA174" s="4"/>
@@ -9677,7 +9693,7 @@
       </c>
       <c r="B179" s="64">
         <f>B171*B178</f>
-        <v>8632029.0650873911</v>
+        <v>12520856.751177352</v>
       </c>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
@@ -9699,7 +9715,7 @@
       </c>
       <c r="B180" s="92">
         <f>B179/B36</f>
-        <v>4.6371362154646205E-2</v>
+        <v>6.7262190444143707E-2</v>
       </c>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
@@ -10217,11 +10233,11 @@
       <c r="D192" s="112"/>
       <c r="E192" s="113">
         <f>$B$174</f>
-        <v>5.3206184067607923E-2</v>
+        <v>7.7176177694038964E-2</v>
       </c>
       <c r="F192" s="113">
         <f>$B$180</f>
-        <v>4.6371362154646205E-2</v>
+        <v>6.7262190444143707E-2</v>
       </c>
       <c r="G192" s="104"/>
       <c r="I192" s="111" t="s">
@@ -10231,11 +10247,11 @@
       <c r="K192" s="112"/>
       <c r="L192" s="113">
         <f>$B$174</f>
-        <v>5.3206184067607923E-2</v>
+        <v>7.7176177694038964E-2</v>
       </c>
       <c r="M192" s="113">
         <f>$B$180</f>
-        <v>4.6371362154646205E-2</v>
+        <v>6.7262190444143707E-2</v>
       </c>
       <c r="N192" s="104"/>
       <c r="P192" s="111" t="s">
@@ -10245,11 +10261,11 @@
       <c r="R192" s="112"/>
       <c r="S192" s="113">
         <f>$B$174</f>
-        <v>5.3206184067607923E-2</v>
+        <v>7.7176177694038964E-2</v>
       </c>
       <c r="T192" s="113">
         <f>$B$180</f>
-        <v>4.6371362154646205E-2</v>
+        <v>6.7262190444143707E-2</v>
       </c>
       <c r="U192" s="104"/>
       <c r="W192" s="111" t="s">
@@ -10259,11 +10275,11 @@
       <c r="Y192" s="112"/>
       <c r="Z192" s="113">
         <f>$B$174</f>
-        <v>5.3206184067607923E-2</v>
+        <v>7.7176177694038964E-2</v>
       </c>
       <c r="AA192" s="113">
         <f>$B$180</f>
-        <v>4.6371362154646205E-2</v>
+        <v>6.7262190444143707E-2</v>
       </c>
       <c r="AB192" s="104"/>
       <c r="AD192" s="111" t="s">
@@ -10273,11 +10289,11 @@
       <c r="AF192" s="112"/>
       <c r="AG192" s="113">
         <f>$B$174</f>
-        <v>5.3206184067607923E-2</v>
+        <v>7.7176177694038964E-2</v>
       </c>
       <c r="AH192" s="113">
         <f>$B$180</f>
-        <v>4.6371362154646205E-2</v>
+        <v>6.7262190444143707E-2</v>
       </c>
       <c r="AI192" s="104"/>
       <c r="AK192" s="111" t="s">
@@ -10287,11 +10303,11 @@
       <c r="AM192" s="112"/>
       <c r="AN192" s="113">
         <f>$B$174</f>
-        <v>5.3206184067607923E-2</v>
+        <v>7.7176177694038964E-2</v>
       </c>
       <c r="AO192" s="113">
         <f>$B$180</f>
-        <v>4.6371362154646205E-2</v>
+        <v>6.7262190444143707E-2</v>
       </c>
       <c r="AP192" s="104"/>
       <c r="AR192" s="111" t="s">
@@ -10301,11 +10317,11 @@
       <c r="AT192" s="112"/>
       <c r="AU192" s="113">
         <f>$B$174</f>
-        <v>5.3206184067607923E-2</v>
+        <v>7.7176177694038964E-2</v>
       </c>
       <c r="AV192" s="113">
         <f>$B$180</f>
-        <v>4.6371362154646205E-2</v>
+        <v>6.7262190444143707E-2</v>
       </c>
       <c r="AW192" s="104"/>
       <c r="AY192" s="111" t="s">
@@ -10315,11 +10331,11 @@
       <c r="BA192" s="112"/>
       <c r="BB192" s="113">
         <f>$B$174</f>
-        <v>5.3206184067607923E-2</v>
+        <v>7.7176177694038964E-2</v>
       </c>
       <c r="BC192" s="113">
         <f>$B$180</f>
-        <v>4.6371362154646205E-2</v>
+        <v>6.7262190444143707E-2</v>
       </c>
       <c r="BD192" s="104"/>
     </row>
@@ -10336,15 +10352,15 @@
         <v>0</v>
       </c>
       <c r="E193" s="116">
-        <f t="dataTable" ref="E193:F213" dt2D="0" dtr="0" r1="B23" ca="1"/>
-        <v>6.6270594480527236E-3</v>
+        <f t="dataTable" ref="E193:F213" dt2D="0" dtr="0" r1="B23"/>
+        <v>3.0597053074483765E-2</v>
       </c>
       <c r="F193" s="116">
-        <v>5.7757529330713887E-3</v>
+        <v>2.6666581222568889E-2</v>
       </c>
       <c r="G193" s="105">
         <f>(F193-F203)/F203*100</f>
-        <v>-87.544569180845855</v>
+        <v>-60.354277720536743</v>
       </c>
       <c r="I193" s="114">
         <f t="shared" ref="I193:I200" si="31">I194-1</f>
@@ -10366,7 +10382,7 @@
       </c>
       <c r="N193" s="105">
         <f>(M193-M203)/M203*100</f>
-        <v>-45.051142167934671</v>
+        <v>-62.117597275830029</v>
       </c>
       <c r="P193" s="114">
         <f t="shared" ref="P193:P200" si="32">P194-1</f>
@@ -10381,10 +10397,10 @@
       </c>
       <c r="S193" s="116">
         <f t="dataTable" ref="S193:T213" dt2D="0" dtr="0" r1="B47" ca="1"/>
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="T193" s="116">
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="U193" s="105">
         <f>(T193-T203)/T203*100</f>
@@ -10403,14 +10419,14 @@
       </c>
       <c r="Z193" s="116">
         <f t="dataTable" ref="Z193:AA213" dt2D="0" dtr="0" r1="B85" ca="1"/>
-        <v>9.4607825229148484E-2</v>
+        <v>0.11857781885557959</v>
       </c>
       <c r="AA193" s="116">
-        <v>8.2454583113679716E-2</v>
+        <v>0.10334541140317727</v>
       </c>
       <c r="AB193" s="105">
         <f>(AA193-AA203)/AA203*100</f>
-        <v>77.813588565066837</v>
+        <v>53.645622779707146</v>
       </c>
       <c r="AD193" s="114">
         <f t="shared" ref="AD193:AD200" si="34">AD194-1</f>
@@ -10425,14 +10441,14 @@
       </c>
       <c r="AG193" s="116">
         <f t="dataTable" ref="AG193:AH213" dt2D="0" dtr="0" r1="B87" ca="1"/>
-        <v>4.6464398898748593E-2</v>
+        <v>7.0434392525179648E-2</v>
       </c>
       <c r="AH193" s="116">
-        <v>4.0495621070926469E-2</v>
+        <v>6.1386449360423985E-2</v>
       </c>
       <c r="AI193" s="105">
         <f>(AH193-AH203)/AH203*100</f>
-        <v>-12.671055605665474</v>
+        <v>-8.7355779598035728</v>
       </c>
       <c r="AK193" s="114">
         <f t="shared" ref="AK193:AK200" si="35">AK194-1</f>
@@ -10447,14 +10463,14 @@
       </c>
       <c r="AN193" s="116">
         <f t="dataTable" ref="AN193:AO213" dt2D="0" dtr="0" r1="B89" ca="1"/>
-        <v>3.8286682594449617E-2</v>
+        <v>6.4279788969011792E-2</v>
       </c>
       <c r="AO193" s="116">
-        <v>3.0771255283204329E-2</v>
+        <v>5.1662083572701807E-2</v>
       </c>
       <c r="AP193" s="105">
         <f>(AO193-AO203)/AO203*100</f>
-        <v>-33.641683458459312</v>
+        <v>-23.192980734691712</v>
       </c>
       <c r="AR193" s="114">
         <f t="shared" ref="AR193:AR200" si="36">AR194-1</f>
@@ -10469,14 +10485,14 @@
       </c>
       <c r="AU193" s="116">
         <f t="dataTable" ref="AU193:AV213" dt2D="0" dtr="0" r1="B31" ca="1"/>
-        <v>2.1951921357639955E-2</v>
+        <v>0.11783189586336416</v>
       </c>
       <c r="AV193" s="116">
-        <v>1.9131995896792008E-2</v>
+        <v>0.10269530905478207</v>
       </c>
       <c r="AW193" s="105">
         <f>(AV193-AV203)/AV203*100</f>
-        <v>-58.741785861308657</v>
+        <v>52.679103039415509</v>
       </c>
       <c r="AY193" s="114">
         <f t="shared" ref="AY193:AY200" si="37">AY194-1</f>
@@ -10490,15 +10506,15 @@
         <v>40</v>
       </c>
       <c r="BB193" s="116">
-        <f t="dataTable" ref="BB193:BC213" dt2D="0" dtr="0" r1="B29"/>
-        <v>0.11991875275942473</v>
+        <f t="dataTable" ref="BB193:BC213" dt2D="0" dtr="0" r1="B29" ca="1"/>
+        <v>0.1438887463858558</v>
       </c>
       <c r="BC193" s="116">
-        <v>0.10451409005905746</v>
+        <v>0.12540491834855499</v>
       </c>
       <c r="BD193" s="105">
         <f>(BC193-BC203)/BC203*100</f>
-        <v>125.38499022415628</v>
+        <v>86.441918588266219</v>
       </c>
     </row>
     <row r="194" spans="2:56">
@@ -10515,14 +10531,14 @@
         <v>7000000</v>
       </c>
       <c r="E194" s="116">
-        <v>1.1284971910008245E-2</v>
+        <v>3.5254965536439309E-2</v>
       </c>
       <c r="F194" s="116">
-        <v>9.8353138552288721E-3</v>
+        <v>3.0726142144726392E-2</v>
       </c>
       <c r="G194" s="105">
         <f>(F194-F203)/F203*100</f>
-        <v>-78.790112262761255</v>
+        <v>-54.318849948483027</v>
       </c>
       <c r="I194" s="114">
         <f t="shared" si="31"/>
@@ -10537,14 +10553,14 @@
         <v>2.2049999999999983</v>
       </c>
       <c r="L194" s="116">
-        <v>3.1633189803819968E-2</v>
+        <v>3.4030189166463068E-2</v>
       </c>
       <c r="M194" s="116">
-        <v>2.7569616694098433E-2</v>
+        <v>2.9658699523048181E-2</v>
       </c>
       <c r="N194" s="105">
         <f>(M194-M203)/M203*100</f>
-        <v>-40.54602795114122</v>
+        <v>-55.905837548247042</v>
       </c>
       <c r="P194" s="114">
         <f t="shared" si="32"/>
@@ -10559,10 +10575,10 @@
         <v>0</v>
       </c>
       <c r="S194" s="116">
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="T194" s="116">
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="U194" s="105">
         <f>(T194-T203)/T203*100</f>
@@ -10581,14 +10597,14 @@
         <v>7.5</v>
       </c>
       <c r="Z194" s="116">
-        <v>9.0467661112994452E-2</v>
+        <v>0.11443765473942548</v>
       </c>
       <c r="AA194" s="116">
-        <v>7.8846261017776365E-2</v>
+        <v>9.9737089307273874E-2</v>
       </c>
       <c r="AB194" s="105">
         <f>(AA194-AA203)/AA203*100</f>
-        <v>70.032229708560152</v>
+        <v>48.281060501736377</v>
       </c>
       <c r="AD194" s="114">
         <f t="shared" si="34"/>
@@ -10603,14 +10619,14 @@
         <v>1.4</v>
       </c>
       <c r="AG194" s="116">
-        <v>4.7055056721954328E-2</v>
+        <v>7.1025050348385368E-2</v>
       </c>
       <c r="AH194" s="116">
-        <v>4.1010403484086272E-2</v>
+        <v>6.1901231773583788E-2</v>
       </c>
       <c r="AI194" s="105">
         <f>(AH194-AH203)/AH203*100</f>
-        <v>-11.560925583081644</v>
+        <v>-7.9702409855530956</v>
       </c>
       <c r="AK194" s="114">
         <f t="shared" si="35"/>
@@ -10625,14 +10641,14 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="AN194" s="116">
-        <v>3.9354682444929283E-2</v>
+        <v>6.5102152822124254E-2</v>
       </c>
       <c r="AO194" s="116">
-        <v>3.1931366510976854E-2</v>
+        <v>5.2822194800474682E-2</v>
       </c>
       <c r="AP194" s="105">
         <f>(AO194-AO203)/AO203*100</f>
-        <v>-31.139899655120502</v>
+        <v>-21.468220925187349</v>
       </c>
       <c r="AR194" s="114">
         <f t="shared" si="36"/>
@@ -10647,14 +10663,14 @@
         <v>6.5</v>
       </c>
       <c r="AU194" s="116">
-        <v>3.1568617576091626E-2</v>
+        <v>0.1053224441189564</v>
       </c>
       <c r="AV194" s="116">
-        <v>2.7513339360747135E-2</v>
+        <v>9.1792811020739495E-2</v>
       </c>
       <c r="AW194" s="105">
         <f>(AV194-AV203)/AV203*100</f>
-        <v>-40.667390211675247</v>
+        <v>36.470148258056895</v>
       </c>
       <c r="AY194" s="114">
         <f t="shared" si="37"/>
@@ -10669,14 +10685,14 @@
         <v>44.5</v>
       </c>
       <c r="BB194" s="116">
-        <v>0.10717590255986419</v>
+        <v>0.13114589618629524</v>
       </c>
       <c r="BC194" s="116">
-        <v>9.3408175740237312E-2</v>
+        <v>0.11429900402973484</v>
       </c>
       <c r="BD194" s="105">
         <f>(BC194-BC203)/BC203*100</f>
-        <v>101.43504827122752</v>
+        <v>69.930540880395114</v>
       </c>
     </row>
     <row r="195" spans="2:56">
@@ -10693,14 +10709,14 @@
         <v>14000000</v>
       </c>
       <c r="E195" s="116">
-        <v>1.5942884371963766E-2</v>
+        <v>3.9912877998394804E-2</v>
       </c>
       <c r="F195" s="116">
-        <v>1.3894874777386356E-2</v>
+        <v>3.4785703066883861E-2</v>
       </c>
       <c r="G195" s="105">
         <f>(F195-F203)/F203*100</f>
-        <v>-70.035655344676655</v>
+        <v>-48.283422176429383</v>
       </c>
       <c r="I195" s="114">
         <f t="shared" si="31"/>
@@ -10715,14 +10731,14 @@
         <v>4.41</v>
       </c>
       <c r="L195" s="116">
-        <v>3.4030189166463082E-2</v>
+        <v>3.8824187891749302E-2</v>
       </c>
       <c r="M195" s="116">
-        <v>2.9658699523048192E-2</v>
+        <v>3.3836865180947709E-2</v>
       </c>
       <c r="N195" s="105">
         <f>(M195-M203)/M203*100</f>
-        <v>-36.04091373434774</v>
+        <v>-49.694077820663999</v>
       </c>
       <c r="P195" s="114">
         <f t="shared" si="32"/>
@@ -10737,10 +10753,10 @@
         <v>0</v>
       </c>
       <c r="S195" s="116">
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="T195" s="116">
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="U195" s="105">
         <f>(T195-T203)/T203*100</f>
@@ -10759,14 +10775,14 @@
         <v>15</v>
       </c>
       <c r="Z195" s="116">
-        <v>8.6327496996840392E-2</v>
+        <v>0.11029749062327143</v>
       </c>
       <c r="AA195" s="116">
-        <v>7.5237938921873013E-2</v>
+        <v>9.6128767211370522E-2</v>
       </c>
       <c r="AB195" s="105">
         <f>(AA195-AA203)/AA203*100</f>
-        <v>62.250870852053467</v>
+        <v>42.916498223765672</v>
       </c>
       <c r="AD195" s="114">
         <f t="shared" si="34"/>
@@ -10781,14 +10797,14 @@
         <v>1.7999999999999998</v>
       </c>
       <c r="AG195" s="116">
-        <v>4.7664702232491328E-2</v>
+        <v>7.163469585892239E-2</v>
       </c>
       <c r="AH195" s="116">
-        <v>4.1541734442140758E-2</v>
+        <v>6.2432562731638282E-2</v>
       </c>
       <c r="AI195" s="105">
         <f>(AH195-AH203)/AH203*100</f>
-        <v>-10.415108567220598</v>
+        <v>-7.1803009694072868</v>
       </c>
       <c r="AK195" s="114">
         <f t="shared" si="35"/>
@@ -10803,14 +10819,14 @@
         <v>3.8000000000000007</v>
       </c>
       <c r="AN195" s="116">
-        <v>4.0525655312514106E-2</v>
+        <v>6.6034819542060058E-2</v>
       </c>
       <c r="AO195" s="116">
-        <v>3.3188641495063356E-2</v>
+        <v>5.4079469784560866E-2</v>
       </c>
       <c r="AP195" s="105">
         <f>(AO195-AO203)/AO203*100</f>
-        <v>-28.428581881246284</v>
+        <v>-19.599005879135202</v>
       </c>
       <c r="AR195" s="114">
         <f t="shared" si="36"/>
@@ -10825,14 +10841,14 @@
         <v>8</v>
       </c>
       <c r="AU195" s="116">
-        <v>3.757905271262392E-2</v>
+        <v>9.750403677870155E-2</v>
       </c>
       <c r="AV195" s="116">
-        <v>3.2751679025719092E-2</v>
+        <v>8.4978749749462887E-2</v>
       </c>
       <c r="AW195" s="105">
         <f>(AV195-AV203)/AV203*100</f>
-        <v>-29.370892930654357</v>
+        <v>26.339551519707754</v>
       </c>
       <c r="AY195" s="114">
         <f t="shared" si="37"/>
@@ -10847,14 +10863,14 @@
         <v>49</v>
       </c>
       <c r="BB195" s="116">
-        <v>9.6773575866345427E-2</v>
+        <v>0.12074356949277651</v>
       </c>
       <c r="BC195" s="116">
-        <v>8.4342123235078045E-2</v>
+        <v>0.10523295152457558</v>
       </c>
       <c r="BD195" s="105">
         <f>(BC195-BC203)/BC203*100</f>
-        <v>81.884075248428601</v>
+        <v>56.451865200500414</v>
       </c>
     </row>
     <row r="196" spans="2:56">
@@ -10871,14 +10887,14 @@
         <v>21000000</v>
       </c>
       <c r="E196" s="116">
-        <v>2.0600796833919285E-2</v>
+        <v>4.457079046035034E-2</v>
       </c>
       <c r="F196" s="116">
-        <v>1.7954435699543837E-2</v>
+        <v>3.8845263989041354E-2</v>
       </c>
       <c r="G196" s="105">
         <f>(F196-F203)/F203*100</f>
-        <v>-61.281198426592084</v>
+        <v>-42.247994404375689</v>
       </c>
       <c r="I196" s="114">
         <f t="shared" si="31"/>
@@ -10893,14 +10909,14 @@
         <v>6.615000000000002</v>
       </c>
       <c r="L196" s="116">
-        <v>3.6427188529106189E-2</v>
+        <v>4.3618186617035495E-2</v>
       </c>
       <c r="M196" s="116">
-        <v>3.1747782351997947E-2</v>
+        <v>3.8015030838847191E-2</v>
       </c>
       <c r="N196" s="105">
         <f>(M196-M203)/M203*100</f>
-        <v>-31.535799517554263</v>
+        <v>-43.482318093081027</v>
       </c>
       <c r="P196" s="114">
         <f t="shared" si="32"/>
@@ -10915,10 +10931,10 @@
         <v>0</v>
       </c>
       <c r="S196" s="116">
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="T196" s="116">
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="U196" s="105">
         <f>(T196-T203)/T203*100</f>
@@ -10937,14 +10953,14 @@
         <v>22.5</v>
       </c>
       <c r="Z196" s="116">
-        <v>8.2187332880686303E-2</v>
+        <v>0.10615732650711736</v>
       </c>
       <c r="AA196" s="116">
-        <v>7.1629616825969647E-2</v>
+        <v>9.2520445115467156E-2</v>
       </c>
       <c r="AB196" s="105">
         <f>(AA196-AA203)/AA203*100</f>
-        <v>54.469511995546746</v>
+        <v>37.551935945794938</v>
       </c>
       <c r="AD196" s="114">
         <f t="shared" si="34"/>
@@ -10959,14 +10975,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AG196" s="116">
-        <v>4.8293211834885441E-2</v>
+        <v>7.2263205461316496E-2</v>
       </c>
       <c r="AH196" s="116">
-        <v>4.2089506226587026E-2</v>
+        <v>6.2980334516084549E-2</v>
       </c>
       <c r="AI196" s="105">
         <f>(AH196-AH203)/AH203*100</f>
-        <v>-9.2338368533997368</v>
+        <v>-6.3659180585486945</v>
       </c>
       <c r="AK196" s="114">
         <f t="shared" si="35"/>
@@ -10981,14 +10997,14 @@
         <v>5.1999999999999993</v>
       </c>
       <c r="AN196" s="116">
-        <v>4.1798363983872482E-2</v>
+        <v>6.7077877316771894E-2</v>
       </c>
       <c r="AO196" s="116">
-        <v>3.4541900916762798E-2</v>
+        <v>5.543272920626028E-2</v>
       </c>
       <c r="AP196" s="105">
         <f>(AO196-AO203)/AO203*100</f>
-        <v>-25.51027334162136</v>
+        <v>-17.5870889124655</v>
       </c>
       <c r="AR196" s="114">
         <f t="shared" si="36"/>
@@ -11003,14 +11019,14 @@
         <v>9.5</v>
       </c>
       <c r="AU196" s="116">
-        <v>4.1691455700777612E-2</v>
+        <v>9.2154600177474552E-2</v>
       </c>
       <c r="AV196" s="116">
-        <v>3.6335806164910445E-2</v>
+        <v>8.0316497300694678E-2</v>
       </c>
       <c r="AW196" s="105">
         <f>(AV196-AV203)/AV203*100</f>
-        <v>-21.641710580482144</v>
+        <v>19.40809059346887</v>
       </c>
       <c r="AY196" s="114">
         <f t="shared" si="37"/>
@@ -11025,14 +11041,14 @@
         <v>53.5</v>
       </c>
       <c r="BB196" s="116">
-        <v>8.8121173289493343E-2</v>
+        <v>0.11209116691592436</v>
       </c>
       <c r="BC196" s="116">
-        <v>7.680120105788947E-2</v>
+        <v>9.769202934738698E-2</v>
       </c>
       <c r="BD196" s="105">
         <f>(BC196-BC203)/BC203*100</f>
-        <v>65.622050958436915</v>
+        <v>45.240630289186036</v>
       </c>
     </row>
     <row r="197" spans="2:56">
@@ -11049,14 +11065,14 @@
         <v>28000000</v>
       </c>
       <c r="E197" s="116">
-        <v>2.5258709295874798E-2</v>
+        <v>4.9228702922305863E-2</v>
       </c>
       <c r="F197" s="116">
-        <v>2.2013996621701309E-2</v>
+        <v>4.2904824911198833E-2</v>
       </c>
       <c r="G197" s="105">
         <f>(F197-F203)/F203*100</f>
-        <v>-52.526741508507527</v>
+        <v>-36.212566632322016</v>
       </c>
       <c r="I197" s="114">
         <f t="shared" si="31"/>
@@ -11071,14 +11087,14 @@
         <v>8.82</v>
       </c>
       <c r="L197" s="116">
-        <v>3.8824187891749302E-2</v>
+        <v>4.8412185342321716E-2</v>
       </c>
       <c r="M197" s="116">
-        <v>3.3836865180947709E-2</v>
+        <v>4.2193196496746702E-2</v>
       </c>
       <c r="N197" s="105">
         <f>(M197-M203)/M203*100</f>
-        <v>-27.030685300760776</v>
+        <v>-37.270558365498005</v>
       </c>
       <c r="P197" s="114">
         <f t="shared" si="32"/>
@@ -11093,10 +11109,10 @@
         <v>0</v>
       </c>
       <c r="S197" s="116">
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="T197" s="116">
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="U197" s="105">
         <f>(T197-T203)/T203*100</f>
@@ -11115,14 +11131,14 @@
         <v>30</v>
       </c>
       <c r="Z197" s="116">
-        <v>7.8047168764532243E-2</v>
+        <v>0.1020171623909633</v>
       </c>
       <c r="AA197" s="116">
-        <v>6.8021294730066295E-2</v>
+        <v>8.8912123019563805E-2</v>
       </c>
       <c r="AB197" s="105">
         <f>(AA197-AA203)/AA203*100</f>
-        <v>46.688153139040068</v>
+        <v>32.187373667824232</v>
       </c>
       <c r="AD197" s="114">
         <f t="shared" si="34"/>
@@ -11137,14 +11153,14 @@
         <v>2.6</v>
       </c>
       <c r="AG197" s="116">
-        <v>4.8940439758624513E-2</v>
+        <v>7.2910433385055567E-2</v>
       </c>
       <c r="AH197" s="116">
-        <v>4.2653591792471003E-2</v>
+        <v>6.354442008196852E-2</v>
       </c>
       <c r="AI197" s="105">
         <f>(AH197-AH203)/AH203*100</f>
-        <v>-8.0173844144940603</v>
+        <v>-5.5272811331687484</v>
       </c>
       <c r="AK197" s="114">
         <f t="shared" si="35"/>
@@ -11159,14 +11175,14 @@
         <v>6.6</v>
       </c>
       <c r="AN197" s="116">
-        <v>4.3170101632899381E-2</v>
+        <v>6.8229671476452966E-2</v>
       </c>
       <c r="AO197" s="116">
-        <v>3.5988613774432139E-2</v>
+        <v>5.6879442063929642E-2</v>
       </c>
       <c r="AP197" s="105">
         <f>(AO197-AO203)/AO203*100</f>
-        <v>-22.390432149886198</v>
+        <v>-15.436232914294063</v>
       </c>
       <c r="AR197" s="114">
         <f t="shared" si="36"/>
@@ -11181,14 +11197,14 @@
         <v>11</v>
       </c>
       <c r="AU197" s="116">
-        <v>4.4682294237616639E-2</v>
+        <v>8.8264100831127651E-2</v>
       </c>
       <c r="AV197" s="116">
-        <v>3.894244408432232E-2</v>
+        <v>7.692576824704507E-2</v>
       </c>
       <c r="AW197" s="105">
         <f>(AV197-AV203)/AV203*100</f>
-        <v>-16.020487053084207</v>
+        <v>14.367028101658766</v>
       </c>
       <c r="AY197" s="114">
         <f t="shared" si="37"/>
@@ -11203,14 +11219,14 @@
         <v>58</v>
       </c>
       <c r="BB197" s="116">
-        <v>8.081138490560108E-2</v>
+        <v>0.10478137853203211</v>
       </c>
       <c r="BC197" s="116">
-        <v>7.0430421977161206E-2</v>
+        <v>9.1321250266658702E-2</v>
       </c>
       <c r="BD197" s="105">
         <f>(BC197-BC203)/BC203*100</f>
-        <v>51.883444230685363</v>
+        <v>35.76906976066185</v>
       </c>
     </row>
     <row r="198" spans="2:56">
@@ -11227,14 +11243,14 @@
         <v>35000000</v>
       </c>
       <c r="E198" s="116">
-        <v>2.991662175783032E-2</v>
+        <v>5.3886615384261372E-2</v>
       </c>
       <c r="F198" s="116">
-        <v>2.6073557543858795E-2</v>
+        <v>4.6964385833356305E-2</v>
       </c>
       <c r="G198" s="105">
         <f>(F198-F203)/F203*100</f>
-        <v>-43.772284590422927</v>
+        <v>-30.177138860268361</v>
       </c>
       <c r="I198" s="114">
         <f t="shared" si="31"/>
@@ -11249,14 +11265,14 @@
         <v>11.025</v>
       </c>
       <c r="L198" s="116">
-        <v>4.1221187254392395E-2</v>
+        <v>5.3206184067607923E-2</v>
       </c>
       <c r="M198" s="116">
-        <v>3.5925948009897443E-2</v>
+        <v>4.6371362154646205E-2</v>
       </c>
       <c r="N198" s="105">
         <f>(M198-M203)/M203*100</f>
-        <v>-22.525571083967343</v>
+        <v>-31.058798637915004</v>
       </c>
       <c r="P198" s="114">
         <f t="shared" si="32"/>
@@ -11271,10 +11287,10 @@
         <v>0</v>
       </c>
       <c r="S198" s="116">
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="T198" s="116">
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="U198" s="105">
         <f>(T198-T203)/T203*100</f>
@@ -11293,14 +11309,14 @@
         <v>37.5</v>
       </c>
       <c r="Z198" s="116">
-        <v>7.3907004648378224E-2</v>
+        <v>9.7876998274809279E-2</v>
       </c>
       <c r="AA198" s="116">
-        <v>6.4412972634162971E-2</v>
+        <v>8.5303800923660494E-2</v>
       </c>
       <c r="AB198" s="105">
         <f>(AA198-AA203)/AA203*100</f>
-        <v>38.90679428253344</v>
+        <v>26.822811389853584</v>
       </c>
       <c r="AD198" s="114">
         <f t="shared" si="34"/>
@@ -11315,14 +11331,14 @@
         <v>3</v>
       </c>
       <c r="AG198" s="116">
-        <v>4.9606218997725937E-2</v>
+        <v>7.3576212624156978E-2</v>
       </c>
       <c r="AH198" s="116">
-        <v>4.3233845587258977E-2</v>
+        <v>6.412467387675648E-2</v>
       </c>
       <c r="AI198" s="105">
         <f>(AH198-AH203)/AH203*100</f>
-        <v>-6.7660651350369321</v>
+        <v>-4.664606589035639</v>
       </c>
       <c r="AK198" s="114">
         <f t="shared" si="35"/>
@@ -11337,14 +11353,14 @@
         <v>8</v>
       </c>
       <c r="AN198" s="116">
-        <v>4.4636929174848287E-2</v>
+        <v>6.9487038555069394E-2</v>
       </c>
       <c r="AO198" s="116">
-        <v>3.7525083229791346E-2</v>
+        <v>5.8415911519288828E-2</v>
       </c>
       <c r="AP198" s="105">
         <f>(AO198-AO203)/AO203*100</f>
-        <v>-19.077030550349058</v>
+        <v>-13.151934045622649</v>
       </c>
       <c r="AR198" s="114">
         <f t="shared" si="36"/>
@@ -11359,14 +11375,14 @@
         <v>12.5</v>
       </c>
       <c r="AU198" s="116">
-        <v>4.6955331525614326E-2</v>
+        <v>8.5307321327903959E-2</v>
       </c>
       <c r="AV198" s="116">
-        <v>4.0923488903075365E-2</v>
+        <v>7.4348814166271357E-2</v>
       </c>
       <c r="AW198" s="105">
         <f>(AV198-AV203)/AV203*100</f>
-        <v>-11.748357172261731</v>
+        <v>10.535820607883069</v>
       </c>
       <c r="AY198" s="114">
         <f t="shared" si="37"/>
@@ -11381,14 +11397,14 @@
         <v>62.5</v>
       </c>
       <c r="BB198" s="116">
-        <v>7.4554206048989297E-2</v>
+        <v>9.8524199675420324E-2</v>
       </c>
       <c r="BC198" s="116">
-        <v>6.4977035084057805E-2</v>
+        <v>8.5867863373555287E-2</v>
       </c>
       <c r="BD198" s="105">
         <f>(BC198-BC203)/BC203*100</f>
-        <v>40.123196871730009</v>
+        <v>27.661413948245144</v>
       </c>
     </row>
     <row r="199" spans="2:56">
@@ -11405,14 +11421,14 @@
         <v>42000000</v>
       </c>
       <c r="E199" s="116">
-        <v>3.4574534219785832E-2</v>
+        <v>5.8544527846216894E-2</v>
       </c>
       <c r="F199" s="116">
-        <v>3.0133118466016268E-2</v>
+        <v>5.1023946755513791E-2</v>
       </c>
       <c r="G199" s="105">
         <f>(F199-F203)/F203*100</f>
-        <v>-35.017827672338363</v>
+        <v>-24.141711088214677</v>
       </c>
       <c r="I199" s="114">
         <f t="shared" si="31"/>
@@ -11427,14 +11443,14 @@
         <v>13.23</v>
       </c>
       <c r="L199" s="116">
-        <v>4.3618186617035495E-2</v>
+        <v>5.8000182792894109E-2</v>
       </c>
       <c r="M199" s="116">
-        <v>3.8015030838847191E-2</v>
+        <v>5.0549527812545694E-2</v>
       </c>
       <c r="N199" s="105">
         <f>(M199-M203)/M203*100</f>
-        <v>-18.020456867173884</v>
+        <v>-24.847038910332021</v>
       </c>
       <c r="P199" s="114">
         <f t="shared" si="32"/>
@@ -11449,10 +11465,10 @@
         <v>0</v>
       </c>
       <c r="S199" s="116">
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="T199" s="116">
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="U199" s="105">
         <f>(T199-T203)/T203*100</f>
@@ -11471,14 +11487,14 @@
         <v>45</v>
       </c>
       <c r="Z199" s="116">
-        <v>6.976684053222415E-2</v>
+        <v>9.3736834158655177E-2</v>
       </c>
       <c r="AA199" s="116">
-        <v>6.0804650538259612E-2</v>
+        <v>8.1695478827757101E-2</v>
       </c>
       <c r="AB199" s="105">
         <f>(AA199-AA203)/AA203*100</f>
-        <v>31.125435426026744</v>
+        <v>21.458249111882814</v>
       </c>
       <c r="AD199" s="114">
         <f t="shared" si="34"/>
@@ -11493,14 +11509,14 @@
         <v>3.4</v>
       </c>
       <c r="AG199" s="116">
-        <v>5.0290362314667707E-2</v>
+        <v>7.4260355941098755E-2</v>
       </c>
       <c r="AH199" s="116">
-        <v>4.3830104425804442E-2</v>
+        <v>6.4720932715301965E-2</v>
       </c>
       <c r="AI199" s="105">
         <f>(AH199-AH203)/AH203*100</f>
-        <v>-5.4802309243510976</v>
+        <v>-3.7781370366641114</v>
       </c>
       <c r="AK199" s="114">
         <f t="shared" si="35"/>
@@ -11515,14 +11531,14 @@
         <v>9.4</v>
       </c>
       <c r="AN199" s="116">
-        <v>4.6193938501891414E-2</v>
+        <v>7.0845580326217239E-2</v>
       </c>
       <c r="AO199" s="116">
-        <v>3.9146667963768089E-2</v>
+        <v>6.0037496253265585E-2</v>
       </c>
       <c r="AP199" s="105">
         <f>(AO199-AO203)/AO203*100</f>
-        <v>-15.58007756335498</v>
+        <v>-10.741092645321594</v>
       </c>
       <c r="AR199" s="114">
         <f t="shared" si="36"/>
@@ -11537,14 +11553,14 @@
         <v>14</v>
       </c>
       <c r="AU199" s="116">
-        <v>4.8741289394755347E-2</v>
+        <v>8.2984137432513969E-2</v>
       </c>
       <c r="AV199" s="116">
-        <v>4.2480024117809892E-2</v>
+        <v>7.2324064531377741E-2</v>
       </c>
       <c r="AW199" s="105">
         <f>(AV199-AV203)/AV203*100</f>
-        <v>-8.3916836944726629</v>
+        <v>7.5255861484879034</v>
       </c>
       <c r="AY199" s="114">
         <f t="shared" si="37"/>
@@ -11559,14 +11575,14 @@
         <v>67</v>
       </c>
       <c r="BB199" s="116">
-        <v>6.9137543755205949E-2</v>
+        <v>9.3107537381636976E-2</v>
       </c>
       <c r="BC199" s="116">
-        <v>6.0256192698983205E-2</v>
+        <v>8.11470209884807E-2</v>
       </c>
       <c r="BD199" s="105">
         <f>(BC199-BC203)/BC203*100</f>
-        <v>29.942684232634303</v>
+        <v>20.64284623003368</v>
       </c>
     </row>
     <row r="200" spans="2:56">
@@ -11583,14 +11599,14 @@
         <v>49000000</v>
       </c>
       <c r="E200" s="116">
-        <v>3.9232446681741369E-2</v>
+        <v>6.3202440308172389E-2</v>
       </c>
       <c r="F200" s="116">
-        <v>3.4192679388173761E-2</v>
+        <v>5.5083507677671263E-2</v>
       </c>
       <c r="G200" s="105">
         <f>(F200-F203)/F203*100</f>
-        <v>-26.263370754253749</v>
+        <v>-18.106283316161019</v>
       </c>
       <c r="I200" s="114">
         <f t="shared" si="31"/>
@@ -11605,14 +11621,14 @@
         <v>15.435</v>
       </c>
       <c r="L200" s="116">
-        <v>4.6015185979678595E-2</v>
+        <v>6.2794181518180323E-2</v>
       </c>
       <c r="M200" s="116">
-        <v>4.0104113667796946E-2</v>
+        <v>5.4727693470445191E-2</v>
       </c>
       <c r="N200" s="105">
         <f>(M200-M203)/M203*100</f>
-        <v>-13.515342650380409</v>
+        <v>-18.635279182749027</v>
       </c>
       <c r="P200" s="114">
         <f t="shared" si="32"/>
@@ -11627,10 +11643,10 @@
         <v>0</v>
       </c>
       <c r="S200" s="116">
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="T200" s="116">
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="U200" s="105">
         <f>(T200-T203)/T203*100</f>
@@ -11649,14 +11665,14 @@
         <v>52.5</v>
       </c>
       <c r="Z200" s="116">
-        <v>6.5626676416070104E-2</v>
+        <v>8.9596670042501145E-2</v>
       </c>
       <c r="AA200" s="116">
-        <v>5.719632844235626E-2</v>
+        <v>7.8087156731853777E-2</v>
       </c>
       <c r="AB200" s="105">
         <f>(AA200-AA203)/AA203*100</f>
-        <v>23.344076569520055</v>
+        <v>16.093686833912145</v>
       </c>
       <c r="AD200" s="114">
         <f t="shared" si="34"/>
@@ -11671,14 +11687,14 @@
         <v>3.8</v>
       </c>
       <c r="AG200" s="116">
-        <v>5.099266329982001E-2</v>
+        <v>7.4962656926251078E-2</v>
       </c>
       <c r="AH200" s="116">
-        <v>4.444218841368601E-2</v>
+        <v>6.5333016703183533E-2</v>
       </c>
       <c r="AI200" s="105">
         <f>(AH200-AH203)/AH203*100</f>
-        <v>-4.1602697253673426</v>
+        <v>-2.8681399285713285</v>
       </c>
       <c r="AK200" s="114">
         <f t="shared" si="35"/>
@@ -11693,14 +11709,14 @@
         <v>10.8</v>
       </c>
       <c r="AN200" s="116">
-        <v>4.7835519574547875E-2</v>
+        <v>7.2299952591080699E-2</v>
       </c>
       <c r="AO200" s="116">
-        <v>4.0848019036265504E-2</v>
+        <v>6.1738847325762986E-2</v>
       </c>
       <c r="AP200" s="105">
         <f>(AO200-AO203)/AO203*100</f>
-        <v>-11.911108196392041</v>
+        <v>-8.2116610861304782</v>
       </c>
       <c r="AR200" s="114">
         <f t="shared" si="36"/>
@@ -11715,14 +11731,14 @@
         <v>15.5</v>
       </c>
       <c r="AU200" s="116">
-        <v>5.0181577998901335E-2</v>
+        <v>8.1110602033005935E-2</v>
       </c>
       <c r="AV200" s="116">
-        <v>4.3735294452273213E-2</v>
+        <v>7.0691201922592595E-2</v>
       </c>
       <c r="AW200" s="105">
         <f>(AV200-AV203)/AV203*100</f>
-        <v>-5.6846889543202037</v>
+        <v>5.0979777134918445</v>
       </c>
       <c r="AY200" s="114">
         <f t="shared" si="37"/>
@@ -11737,14 +11753,14 @@
         <v>71.5</v>
       </c>
       <c r="BB200" s="116">
-        <v>6.4402699092807936E-2</v>
+        <v>8.8372692719238977E-2</v>
       </c>
       <c r="BC200" s="116">
-        <v>5.6129582222519417E-2</v>
+        <v>7.7020410512016926E-2</v>
       </c>
       <c r="BD200" s="105">
         <f>(BC200-BC203)/BC203*100</f>
-        <v>21.043634722935309</v>
+        <v>14.507734588240478</v>
       </c>
     </row>
     <row r="201" spans="2:56">
@@ -11761,14 +11777,14 @@
         <v>56000000</v>
       </c>
       <c r="E201" s="116">
-        <v>4.3890359143696878E-2</v>
+        <v>6.7860352770127932E-2</v>
       </c>
       <c r="F201" s="116">
-        <v>3.8252240310331233E-2</v>
+        <v>5.9143068599828763E-2</v>
       </c>
       <c r="G201" s="105">
         <f>(F201-F203)/F203*100</f>
-        <v>-17.508913836169189</v>
+        <v>-12.070855544107321</v>
       </c>
       <c r="I201" s="114">
         <f>I202-1</f>
@@ -11783,14 +11799,14 @@
         <v>17.64</v>
       </c>
       <c r="L201" s="116">
-        <v>4.8412185342321716E-2</v>
+        <v>6.7588180243466522E-2</v>
       </c>
       <c r="M201" s="116">
-        <v>4.2193196496746702E-2</v>
+        <v>5.8905859128344687E-2</v>
       </c>
       <c r="N201" s="105">
         <f>(M201-M203)/M203*100</f>
-        <v>-9.0102284335869349</v>
+        <v>-12.42351945516603</v>
       </c>
       <c r="P201" s="114">
         <f>P202-1</f>
@@ -11805,10 +11821,10 @@
         <v>0</v>
       </c>
       <c r="S201" s="116">
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="T201" s="116">
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="U201" s="105">
         <f>(T201-T203)/T203*100</f>
@@ -11827,14 +11843,14 @@
         <v>60</v>
       </c>
       <c r="Z201" s="116">
-        <v>6.1486512299916023E-2</v>
+        <v>8.5456505926347126E-2</v>
       </c>
       <c r="AA201" s="116">
-        <v>5.3588006346452902E-2</v>
+        <v>7.4478834635950439E-2</v>
       </c>
       <c r="AB201" s="105">
         <f>(AA201-AA203)/AA203*100</f>
-        <v>15.562717713013354</v>
+        <v>10.729124555941457</v>
       </c>
       <c r="AD201" s="114">
         <f>AD202-1</f>
@@ -11849,14 +11865,14 @@
         <v>4.2</v>
       </c>
       <c r="AG201" s="116">
-        <v>5.1712897477447999E-2</v>
+        <v>7.568289110387906E-2</v>
       </c>
       <c r="AH201" s="116">
-        <v>4.5069901911134032E-2</v>
+        <v>6.5960730200631562E-2</v>
       </c>
       <c r="AI201" s="105">
         <f>(AH201-AH203)/AH203*100</f>
-        <v>-2.8066034359134573</v>
+        <v>-1.9349061261882516</v>
       </c>
       <c r="AK201" s="114">
         <f>AK202-1</f>
@@ -11871,14 +11887,14 @@
         <v>12.2</v>
       </c>
       <c r="AN201" s="116">
-        <v>4.9555613513827791E-2</v>
+        <v>7.3844147372616811E-2</v>
       </c>
       <c r="AO201" s="116">
-        <v>4.2623314306123157E-2</v>
+        <v>6.3514142595620673E-2</v>
       </c>
       <c r="AP201" s="105">
         <f>(AO201-AO203)/AO203*100</f>
-        <v>-8.0826779166492742</v>
+        <v>-5.5722952579659317</v>
       </c>
       <c r="AR201" s="114">
         <f>AR202-1</f>
@@ -11893,14 +11909,14 @@
         <v>17</v>
       </c>
       <c r="AU201" s="116">
-        <v>5.1367698025845086E-2</v>
+        <v>7.956769052752867E-2</v>
       </c>
       <c r="AV201" s="116">
-        <v>4.476904649241948E-2</v>
+        <v>6.9346491538887139E-2</v>
       </c>
       <c r="AW201" s="105">
         <f>(AV201-AV203)/AV203*100</f>
-        <v>-3.4553991683122898</v>
+        <v>3.0987707670244409</v>
       </c>
       <c r="AY201" s="114">
         <f>AY202-1</f>
@@ -11915,14 +11931,14 @@
         <v>76</v>
       </c>
       <c r="BB201" s="116">
-        <v>6.0228559719378114E-2</v>
+        <v>8.4198553345809168E-2</v>
       </c>
       <c r="BC201" s="116">
-        <v>5.2491649302478974E-2</v>
+        <v>7.3382477591976483E-2</v>
       </c>
       <c r="BD201" s="105">
         <f>(BC201-BC203)/BC203*100</f>
-        <v>13.198420023595411</v>
+        <v>9.0991493250806688</v>
       </c>
     </row>
     <row r="202" spans="2:56">
@@ -11938,14 +11954,14 @@
         <v>63000000</v>
       </c>
       <c r="E202" s="116">
-        <v>4.8548271605652393E-2</v>
+        <v>7.2518265232083448E-2</v>
       </c>
       <c r="F202" s="116">
-        <v>4.2311801232488712E-2</v>
+        <v>6.3202629521986228E-2</v>
       </c>
       <c r="G202" s="105">
         <f>(F202-F203)/F203*100</f>
-        <v>-8.7544569180846086</v>
+        <v>-6.0354277720536693</v>
       </c>
       <c r="I202" s="114">
         <v>-1</v>
@@ -11959,14 +11975,14 @@
         <v>19.844999999999999</v>
       </c>
       <c r="L202" s="116">
-        <v>5.0809184704964823E-2</v>
+        <v>7.238217896875275E-2</v>
       </c>
       <c r="M202" s="116">
-        <v>4.4282279325696464E-2</v>
+        <v>6.3084024786244211E-2</v>
       </c>
       <c r="N202" s="105">
         <f>(M202-M203)/M203*100</f>
-        <v>-4.5051142167934444</v>
+        <v>-6.2117597275829946</v>
       </c>
       <c r="P202" s="114">
         <v>-1</v>
@@ -11980,10 +11996,10 @@
         <v>0</v>
       </c>
       <c r="S202" s="116">
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="T202" s="116">
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="U202" s="105">
         <f>(T202-T203)/T203*100</f>
@@ -12001,14 +12017,14 @@
         <v>67.5</v>
       </c>
       <c r="Z202" s="116">
-        <v>5.7346348183761976E-2</v>
+        <v>8.1316341810193024E-2</v>
       </c>
       <c r="AA202" s="116">
-        <v>4.9979684250549557E-2</v>
+        <v>7.0870512540047059E-2</v>
       </c>
       <c r="AB202" s="105">
         <f>(AA202-AA203)/AA203*100</f>
-        <v>7.781358856506686</v>
+        <v>5.3645622779707089</v>
       </c>
       <c r="AD202" s="114">
         <v>-1</v>
@@ -12022,14 +12038,14 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AG202" s="116">
-        <v>5.2450823449385571E-2</v>
+        <v>7.6420817075816619E-2</v>
       </c>
       <c r="AH202" s="116">
-        <v>4.5713034529788948E-2</v>
+        <v>6.6603862819286458E-2</v>
       </c>
       <c r="AI202" s="105">
         <f>(AH202-AH203)/AH203*100</f>
-        <v>-1.4196857592014793</v>
+        <v>-0.97874841795992673</v>
       </c>
       <c r="AK202" s="114">
         <v>-1</v>
@@ -12043,14 +12059,14 @@
         <v>13.6</v>
       </c>
       <c r="AN202" s="116">
-        <v>5.134793895500385E-2</v>
+        <v>7.5471752440097628E-2</v>
       </c>
       <c r="AO202" s="116">
-        <v>4.4466476098043606E-2</v>
+        <v>6.5357304387541088E-2</v>
       </c>
       <c r="AP202" s="105">
         <f>(AO202-AO203)/AO203*100</f>
-        <v>-4.1078932515501663</v>
+        <v>-2.8320309582907313</v>
       </c>
       <c r="AR202" s="114">
         <v>-1</v>
@@ -12064,14 +12080,14 @@
         <v>18.5</v>
       </c>
       <c r="AU202" s="116">
-        <v>5.2361474264635804E-2</v>
+        <v>7.8274980887804518E-2</v>
       </c>
       <c r="AV202" s="116">
-        <v>4.5635163066596075E-2</v>
+        <v>6.8219842298485309E-2</v>
       </c>
       <c r="AW202" s="105">
         <f>(AV202-AV203)/AV203*100</f>
-        <v>-1.5876158340894577</v>
+        <v>1.4237595416058604</v>
       </c>
       <c r="AY202" s="114">
         <v>-1</v>
@@ -12085,14 +12101,14 @@
         <v>80.5</v>
       </c>
       <c r="BB202" s="116">
-        <v>5.6521094313164037E-2</v>
+        <v>8.0491087939595071E-2</v>
       </c>
       <c r="BC202" s="116">
-        <v>4.926044180207037E-2</v>
+        <v>7.0151270091567866E-2</v>
       </c>
       <c r="BD202" s="105">
         <f>(BC202-BC203)/BC203*100</f>
-        <v>6.2303100732500099</v>
+        <v>4.295250613081544</v>
       </c>
     </row>
     <row r="203" spans="2:56">
@@ -12107,10 +12123,10 @@
         <v>70000000</v>
       </c>
       <c r="E203" s="116">
-        <v>5.3206184067607923E-2</v>
+        <v>7.7176177694038964E-2</v>
       </c>
       <c r="F203" s="116">
-        <v>4.6371362154646205E-2</v>
+        <v>6.7262190444143707E-2</v>
       </c>
       <c r="G203" s="105">
         <f>(F203-F203)/F203*100</f>
@@ -12127,10 +12143,10 @@
         <v>22.05</v>
       </c>
       <c r="L203" s="116">
-        <v>5.3206184067607923E-2</v>
+        <v>7.7176177694038964E-2</v>
       </c>
       <c r="M203" s="116">
-        <v>4.6371362154646205E-2</v>
+        <v>6.7262190444143707E-2</v>
       </c>
       <c r="N203" s="105">
         <f>(M203-M203)/M203*100</f>
@@ -12147,10 +12163,10 @@
         <v>0</v>
       </c>
       <c r="S203" s="116">
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="T203" s="116">
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="U203" s="105">
         <f>(T203-T203)/T203*100</f>
@@ -12167,10 +12183,10 @@
         <v>75</v>
       </c>
       <c r="Z203" s="116">
-        <v>5.3206184067607923E-2</v>
+        <v>7.7176177694038964E-2</v>
       </c>
       <c r="AA203" s="116">
-        <v>4.6371362154646205E-2</v>
+        <v>6.7262190444143707E-2</v>
       </c>
       <c r="AB203" s="105">
         <f>(AA203-AA203)/AA203*100</f>
@@ -12187,10 +12203,10 @@
         <v>5</v>
       </c>
       <c r="AG203" s="116">
-        <v>5.3206184067607923E-2</v>
+        <v>7.7176177694038964E-2</v>
       </c>
       <c r="AH203" s="116">
-        <v>4.6371362154646205E-2</v>
+        <v>6.7262190444143707E-2</v>
       </c>
       <c r="AI203" s="105">
         <f>(AH203-AH203)/AH203*100</f>
@@ -12207,10 +12223,10 @@
         <v>15</v>
       </c>
       <c r="AN203" s="116">
-        <v>5.3206184067607923E-2</v>
+        <v>7.7176177694038964E-2</v>
       </c>
       <c r="AO203" s="116">
-        <v>4.6371362154646205E-2</v>
+        <v>6.7262190444143707E-2</v>
       </c>
       <c r="AP203" s="105">
         <f>(AO203-AO203)/AO203*100</f>
@@ -12227,10 +12243,10 @@
         <v>20</v>
       </c>
       <c r="AU203" s="116">
-        <v>5.3206184067607923E-2</v>
+        <v>7.7176177694038964E-2</v>
       </c>
       <c r="AV203" s="116">
-        <v>4.6371362154646205E-2</v>
+        <v>6.7262190444143707E-2</v>
       </c>
       <c r="AW203" s="105">
         <f>(AV203-AV203)/AV203*100</f>
@@ -12247,10 +12263,10 @@
         <v>85</v>
       </c>
       <c r="BB203" s="116">
-        <v>5.3206184067607923E-2</v>
+        <v>7.7176177694038964E-2</v>
       </c>
       <c r="BC203" s="116">
-        <v>4.6371362154646205E-2</v>
+        <v>6.7262190444143707E-2</v>
       </c>
       <c r="BD203" s="105">
         <f>(BC203-BC203)/BC203*100</f>
@@ -12270,14 +12286,14 @@
         <v>83000000</v>
       </c>
       <c r="E204" s="116">
-        <v>6.1856592925525304E-2</v>
+        <v>8.5826586551956352E-2</v>
       </c>
       <c r="F204" s="116">
-        <v>5.3910546724367223E-2</v>
+        <v>7.4801375013864732E-2</v>
       </c>
       <c r="G204" s="105">
         <f>(F204-F203)/F203*100</f>
-        <v>16.258277133585615</v>
+        <v>11.208651576671089</v>
       </c>
       <c r="I204" s="114">
         <v>1</v>
@@ -12291,14 +12307,14 @@
         <v>29.844999999999999</v>
       </c>
       <c r="L204" s="116">
-        <v>6.1679930113777065E-2</v>
+        <v>9.4123669786377276E-2</v>
       </c>
       <c r="M204" s="116">
-        <v>5.3756577869686233E-2</v>
+        <v>8.2032621874223804E-2</v>
       </c>
       <c r="N204" s="105">
         <f>(M204-M203)/M203*100</f>
-        <v>15.926242775467102</v>
+        <v>21.959486202498642</v>
       </c>
       <c r="P204" s="114">
         <v>1</v>
@@ -12312,14 +12328,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="S204" s="116">
-        <v>6.6810378699352538E-2</v>
+        <v>9.0780372325783648E-2</v>
       </c>
       <c r="T204" s="116">
-        <v>5.822797332017017E-2</v>
+        <v>7.9118801609667735E-2</v>
       </c>
       <c r="U204" s="105">
         <f>(T204-T203)/T203*100</f>
-        <v>-16.373435697662149</v>
+        <v>-12.594636078796437</v>
       </c>
       <c r="W204" s="114">
         <v>1</v>
@@ -12333,14 +12349,14 @@
         <v>77.5</v>
       </c>
       <c r="Z204" s="116">
-        <v>5.182612936222325E-2</v>
+        <v>7.5796122988654291E-2</v>
       </c>
       <c r="AA204" s="116">
-        <v>4.5168588122678426E-2</v>
+        <v>6.6059416412175928E-2</v>
       </c>
       <c r="AB204" s="105">
         <f>(AA204-AA203)/AA203*100</f>
-        <v>-2.5937862855022185</v>
+        <v>-1.7881874259902293</v>
       </c>
       <c r="AD204" s="114">
         <v>1</v>
@@ -12354,14 +12370,14 @@
         <v>6</v>
       </c>
       <c r="AG204" s="116">
-        <v>5.5169046566068539E-2</v>
+        <v>7.9139040192499566E-2</v>
       </c>
       <c r="AH204" s="116">
-        <v>4.808207697795007E-2</v>
+        <v>6.8972905267447565E-2</v>
       </c>
       <c r="AI204" s="105">
         <f>(AH204-AH203)/AH203*100</f>
-        <v>3.6891623273836882</v>
+        <v>2.5433528286957592</v>
       </c>
       <c r="AK204" s="114">
         <v>1</v>
@@ -12375,14 +12391,14 @@
         <v>18.5</v>
       </c>
       <c r="AN204" s="116">
-        <v>5.8100205071620434E-2</v>
+        <v>8.1730565366873204E-2</v>
       </c>
       <c r="AO204" s="116">
-        <v>5.1364490112309237E-2</v>
+        <v>7.2255318401806753E-2</v>
       </c>
       <c r="AP204" s="105">
         <f>(AO204-AO203)/AO203*100</f>
-        <v>10.767697401277964</v>
+        <v>7.4233799474750546</v>
       </c>
       <c r="AR204" s="114">
         <v>1</v>
@@ -12396,14 +12412,14 @@
         <v>23</v>
       </c>
       <c r="AU204" s="116">
-        <v>5.4565065054997829E-2</v>
+        <v>7.5408537773633516E-2</v>
       </c>
       <c r="AV204" s="116">
-        <v>4.7555682426726816E-2</v>
+        <v>6.572162006976813E-2</v>
       </c>
       <c r="AW204" s="105">
         <f>(AV204-AV203)/AV203*100</f>
-        <v>2.553990689622101</v>
+        <v>-2.2903957843224085</v>
       </c>
       <c r="AY204" s="114">
         <v>1</v>
@@ -12417,14 +12433,14 @@
         <v>86.5</v>
       </c>
       <c r="BB204" s="116">
-        <v>5.2177859309352544E-2</v>
+        <v>7.6147852935783578E-2</v>
       </c>
       <c r="BC204" s="116">
-        <v>4.5475135134925015E-2</v>
+        <v>6.6365963424422525E-2</v>
       </c>
       <c r="BD204" s="105">
         <f>(BC204-BC203)/BC203*100</f>
-        <v>-1.9327166123184316</v>
+        <v>-1.3324380514569072</v>
       </c>
     </row>
     <row r="205" spans="2:56">
@@ -12441,14 +12457,14 @@
         <v>96000000</v>
       </c>
       <c r="E205" s="116">
-        <v>7.0507001783442713E-2</v>
+        <v>9.447699540987374E-2</v>
       </c>
       <c r="F205" s="116">
-        <v>6.1449731294088275E-2</v>
+        <v>8.2340559583585771E-2</v>
       </c>
       <c r="G205" s="105">
         <f>(F205-F203)/F203*100</f>
-        <v>32.516554267171301</v>
+        <v>22.4173031533422</v>
       </c>
       <c r="I205" s="114">
         <f>I204+1</f>
@@ -12463,14 +12479,14 @@
         <v>37.64</v>
       </c>
       <c r="L205" s="116">
-        <v>7.0153676159946207E-2</v>
+        <v>0.11107116187871562</v>
       </c>
       <c r="M205" s="116">
-        <v>6.1141793584726281E-2</v>
+        <v>9.6803053304303915E-2</v>
       </c>
       <c r="N205" s="105">
         <f>(M205-M203)/M203*100</f>
-        <v>31.852485550934251</v>
+        <v>43.918972404997305</v>
       </c>
       <c r="P205" s="114">
         <f>P204+1</f>
@@ -12485,14 +12501,14 @@
         <v>0.01</v>
       </c>
       <c r="S205" s="116">
-        <v>5.3729422322675031E-2</v>
+        <v>7.7699415949106093E-2</v>
       </c>
       <c r="T205" s="116">
-        <v>4.6827385661012515E-2</v>
+        <v>6.7718213950510031E-2</v>
       </c>
       <c r="U205" s="105">
         <f>(T205-T203)/T203*100</f>
-        <v>-32.746871395324192</v>
+        <v>-25.189272157592907</v>
       </c>
       <c r="W205" s="114">
         <f>W204+1</f>
@@ -12507,14 +12523,14 @@
         <v>80</v>
       </c>
       <c r="Z205" s="116">
-        <v>5.0446074656838535E-2</v>
+        <v>7.4416068283269576E-2</v>
       </c>
       <c r="AA205" s="116">
-        <v>4.3965814090710625E-2</v>
+        <v>6.4856642380208121E-2</v>
       </c>
       <c r="AB205" s="105">
         <f>(AA205-AA203)/AA203*100</f>
-        <v>-5.1875725710044822</v>
+        <v>-3.5763748519804994</v>
       </c>
       <c r="AD205" s="114">
         <f>AD204+1</f>
@@ -12529,14 +12545,14 @@
         <v>7</v>
       </c>
       <c r="AG205" s="116">
-        <v>5.7234555222813628E-2</v>
+        <v>8.1204548849244704E-2</v>
       </c>
       <c r="AH205" s="116">
-        <v>4.9882252119880517E-2</v>
+        <v>7.0773080409378047E-2</v>
       </c>
       <c r="AI205" s="105">
         <f>(AH205-AH203)/AH203*100</f>
-        <v>7.5712461357629897</v>
+        <v>5.2197080440754826</v>
       </c>
       <c r="AK205" s="114">
         <f>AK204+1</f>
@@ -12551,14 +12567,14 @@
         <v>22</v>
       </c>
       <c r="AN205" s="116">
-        <v>6.3279654785339312E-2</v>
+        <v>8.66279440506494E-2</v>
       </c>
       <c r="AO205" s="116">
-        <v>5.6619326037874777E-2</v>
+        <v>7.7510154327372308E-2</v>
       </c>
       <c r="AP205" s="105">
         <f>(AO205-AO203)/AO203*100</f>
-        <v>22.099768924303149</v>
+        <v>15.235846194659358</v>
       </c>
       <c r="AR205" s="114">
         <f>AR204+1</f>
@@ -12573,14 +12589,14 @@
         <v>26</v>
       </c>
       <c r="AU205" s="116">
-        <v>5.5610358122220857E-2</v>
+        <v>7.4048814757937009E-2</v>
       </c>
       <c r="AV205" s="116">
-        <v>4.8466698020635003E-2</v>
+        <v>6.4536565935633061E-2</v>
       </c>
       <c r="AW205" s="105">
         <f>(AV205-AV203)/AV203*100</f>
-        <v>4.5185989124083878</v>
+        <v>-4.0522386953396596</v>
       </c>
       <c r="AY205" s="114">
         <f>AY204+1</f>
@@ -12595,14 +12611,14 @@
         <v>88</v>
       </c>
       <c r="BB205" s="116">
-        <v>5.1184591076946798E-2</v>
+        <v>7.5154584703377839E-2</v>
       </c>
       <c r="BC205" s="116">
-        <v>4.4609461309057977E-2</v>
+        <v>6.5500289598555486E-2</v>
       </c>
       <c r="BD205" s="105">
         <f>(BC205-BC203)/BC203*100</f>
-        <v>-3.7995451583077844</v>
+        <v>-2.6194520784323103</v>
       </c>
     </row>
     <row r="206" spans="2:56">
@@ -12619,14 +12635,14 @@
         <v>109000000</v>
       </c>
       <c r="E206" s="116">
-        <v>7.9157410641360088E-2</v>
+        <v>0.10312740426779113</v>
       </c>
       <c r="F206" s="116">
-        <v>6.89889158638093E-2</v>
+        <v>8.9879744153306809E-2</v>
       </c>
       <c r="G206" s="105">
         <f>(F206-F203)/F203*100</f>
-        <v>48.774831400756938</v>
+        <v>33.625954730013305</v>
       </c>
       <c r="I206" s="114">
         <f t="shared" ref="I206:I213" si="46">I205+1</f>
@@ -12641,14 +12657,14 @@
         <v>45.435000000000002</v>
       </c>
       <c r="L206" s="116">
-        <v>7.8627422206115405E-2</v>
+        <v>0.12801865397105397</v>
       </c>
       <c r="M206" s="116">
-        <v>6.852700929976635E-2</v>
+        <v>0.11157348473438405</v>
       </c>
       <c r="N206" s="105">
         <f>(M206-M203)/M203*100</f>
-        <v>47.778728326401442</v>
+        <v>65.878458607496</v>
       </c>
       <c r="P206" s="114">
         <f t="shared" ref="P206:P213" si="47">P205+1</f>
@@ -12663,14 +12679,14 @@
         <v>1.5000000000000003E-2</v>
       </c>
       <c r="S206" s="116">
-        <v>4.064846594599747E-2</v>
+        <v>6.4618459572428524E-2</v>
       </c>
       <c r="T206" s="116">
-        <v>3.5426798001854817E-2</v>
+        <v>5.6317626291352334E-2</v>
       </c>
       <c r="U206" s="105">
         <f>(T206-T203)/T203*100</f>
-        <v>-49.120307092986288</v>
+        <v>-37.783908236389365</v>
       </c>
       <c r="W206" s="114">
         <f t="shared" ref="W206:W213" si="48">W205+1</f>
@@ -12685,14 +12701,14 @@
         <v>82.5</v>
       </c>
       <c r="Z206" s="116">
-        <v>4.9066019951453863E-2</v>
+        <v>7.3036013577884945E-2</v>
       </c>
       <c r="AA206" s="116">
-        <v>4.2763040058742853E-2</v>
+        <v>6.3653868348240383E-2</v>
       </c>
       <c r="AB206" s="105">
         <f>(AA206-AA203)/AA203*100</f>
-        <v>-7.781358856506686</v>
+        <v>-5.3645622779706672</v>
       </c>
       <c r="AD206" s="114">
         <f t="shared" ref="AD206:AD213" si="49">AD205+1</f>
@@ -12707,14 +12723,14 @@
         <v>8</v>
       </c>
       <c r="AG206" s="116">
-        <v>5.9397720053739445E-2</v>
+        <v>8.3367713680170527E-2</v>
       </c>
       <c r="AH206" s="116">
-        <v>5.1767538605518998E-2</v>
+        <v>7.2658366895016535E-2</v>
       </c>
       <c r="AI206" s="105">
         <f>(AH206-AH203)/AH203*100</f>
-        <v>11.636872845953523</v>
+        <v>8.0225999409786617</v>
       </c>
       <c r="AK206" s="114">
         <f t="shared" ref="AK206:AK213" si="50">AK205+1</f>
@@ -12729,14 +12745,14 @@
         <v>25.5</v>
       </c>
       <c r="AN206" s="116">
-        <v>6.8670742445014477E-2</v>
+        <v>9.1785586888953566E-2</v>
       </c>
       <c r="AO206" s="116">
-        <v>6.2063523395558366E-2</v>
+        <v>8.2954351685055883E-2</v>
       </c>
       <c r="AP206" s="105">
         <f>(AO206-AO203)/AO203*100</f>
-        <v>33.840199018910802</v>
+        <v>23.329839746957628</v>
       </c>
       <c r="AR206" s="114">
         <f t="shared" ref="AR206:AR213" si="51">AR205+1</f>
@@ -12751,14 +12767,14 @@
         <v>29</v>
       </c>
       <c r="AU206" s="116">
-        <v>5.6439383658294248E-2</v>
+        <v>7.2970413745488072E-2</v>
       </c>
       <c r="AV206" s="116">
-        <v>4.918922762959662E-2</v>
+        <v>6.3596695415456969E-2</v>
       </c>
       <c r="AW206" s="105">
         <f>(AV206-AV203)/AV203*100</f>
-        <v>6.0767364684111991</v>
+        <v>-5.4495623833878284</v>
       </c>
       <c r="AY206" s="114">
         <f t="shared" ref="AY206:AY213" si="52">AY205+1</f>
@@ -12773,14 +12789,14 @@
         <v>89.5</v>
       </c>
       <c r="BB206" s="116">
-        <v>5.0224616751772526E-2</v>
+        <v>7.4194610378203574E-2</v>
       </c>
       <c r="BC206" s="116">
-        <v>4.3772804482940665E-2</v>
+        <v>6.4663632772438182E-2</v>
       </c>
       <c r="BD206" s="105">
         <f>(BC206-BC203)/BC203*100</f>
-        <v>-5.6037984457723669</v>
+        <v>-3.8633259704252962</v>
       </c>
     </row>
     <row r="207" spans="2:56">
@@ -12797,14 +12813,14 @@
         <v>122000000</v>
       </c>
       <c r="E207" s="116">
-        <v>8.780781949927749E-2</v>
+        <v>0.11177781312570854</v>
       </c>
       <c r="F207" s="116">
-        <v>7.6528100433530338E-2</v>
+        <v>9.7418928723027862E-2</v>
       </c>
       <c r="G207" s="105">
         <f>(F207-F203)/F203*100</f>
-        <v>65.033108534342603</v>
+        <v>44.834606306684442</v>
       </c>
       <c r="I207" s="114">
         <f t="shared" si="46"/>
@@ -12819,14 +12835,14 @@
         <v>53.230000000000004</v>
       </c>
       <c r="L207" s="116">
-        <v>8.7101168252284547E-2</v>
+        <v>0.14496614606339228</v>
       </c>
       <c r="M207" s="116">
-        <v>7.5912225014806378E-2</v>
+        <v>0.12634391616446414</v>
       </c>
       <c r="N207" s="105">
         <f>(M207-M203)/M203*100</f>
-        <v>63.704971101868544</v>
+        <v>87.837944809994625</v>
       </c>
       <c r="P207" s="114">
         <f t="shared" si="47"/>
@@ -12841,14 +12857,14 @@
         <v>0.02</v>
       </c>
       <c r="S207" s="116">
-        <v>2.7567509569319918E-2</v>
+        <v>5.1537503195750969E-2</v>
       </c>
       <c r="T207" s="116">
-        <v>2.402621034269713E-2</v>
+        <v>4.4917038632194643E-2</v>
       </c>
       <c r="U207" s="105">
         <f>(T207-T203)/T203*100</f>
-        <v>-65.493742790648383</v>
+        <v>-50.378544315185827</v>
       </c>
       <c r="W207" s="114">
         <f t="shared" si="48"/>
@@ -12863,14 +12879,14 @@
         <v>85</v>
       </c>
       <c r="Z207" s="116">
-        <v>4.7685965246069169E-2</v>
+        <v>7.1655958872500231E-2</v>
       </c>
       <c r="AA207" s="116">
-        <v>4.156026602677506E-2</v>
+        <v>6.2451094316272583E-2</v>
       </c>
       <c r="AB207" s="105">
         <f>(AA207-AA203)/AA203*100</f>
-        <v>-10.375145142008932</v>
+        <v>-7.1527497039609269</v>
       </c>
       <c r="AD207" s="114">
         <f t="shared" si="49"/>
@@ -12885,14 +12901,14 @@
         <v>9</v>
       </c>
       <c r="AG207" s="116">
-        <v>6.1653260794812995E-2</v>
+        <v>8.5623254421244049E-2</v>
       </c>
       <c r="AH207" s="116">
-        <v>5.3733334469134732E-2</v>
+        <v>7.4624162758632248E-2</v>
       </c>
       <c r="AI207" s="105">
         <f>(AH207-AH203)/AH203*100</f>
-        <v>15.876118303224979</v>
+        <v>10.945186687909185</v>
       </c>
       <c r="AK207" s="114">
         <f t="shared" si="50"/>
@@ -12907,14 +12923,14 @@
         <v>29</v>
       </c>
       <c r="AN207" s="116">
-        <v>7.4215506086485486E-2</v>
+        <v>9.713695516187483E-2</v>
       </c>
       <c r="AO207" s="116">
-        <v>6.7640723279385015E-2</v>
+        <v>8.8531551568882524E-2</v>
       </c>
       <c r="AP207" s="105">
         <f>(AO207-AO203)/AO203*100</f>
-        <v>45.867449512926839</v>
+        <v>31.621570728359572</v>
       </c>
       <c r="AR207" s="114">
         <f t="shared" si="51"/>
@@ -12929,14 +12945,14 @@
         <v>32</v>
       </c>
       <c r="AU207" s="116">
-        <v>5.711296690635391E-2</v>
+        <v>7.2094212922873324E-2</v>
       </c>
       <c r="AV207" s="116">
-        <v>4.9776282936877976E-2</v>
+        <v>6.2833050617813926E-2</v>
       </c>
       <c r="AW207" s="105">
         <f>(AV207-AV203)/AV203*100</f>
-        <v>7.3427232326635741</v>
+        <v>-6.584887879926919</v>
       </c>
       <c r="AY207" s="114">
         <f t="shared" si="52"/>
@@ -12951,14 +12967,14 @@
         <v>91</v>
       </c>
       <c r="BB207" s="116">
-        <v>4.9296289931823771E-2</v>
+        <v>7.3266283558254833E-2</v>
       </c>
       <c r="BC207" s="116">
-        <v>4.2963729749992054E-2</v>
+        <v>6.385455803948957E-2</v>
       </c>
       <c r="BD207" s="105">
         <f>(BC207-BC203)/BC203*100</f>
-        <v>-7.3485708556282319</v>
+        <v>-5.0661930308141319</v>
       </c>
     </row>
     <row r="208" spans="2:56">
@@ -12975,14 +12991,14 @@
         <v>135000000</v>
       </c>
       <c r="E208" s="116">
-        <v>9.6458228357194892E-2</v>
+        <v>0.12042822198362593</v>
       </c>
       <c r="F208" s="116">
-        <v>8.4067285003251391E-2</v>
+        <v>0.1049581132927489</v>
       </c>
       <c r="G208" s="105">
         <f>(F208-F203)/F203*100</f>
-        <v>81.291385667928282</v>
+        <v>56.043257883355544</v>
       </c>
       <c r="I208" s="114">
         <f t="shared" si="46"/>
@@ -12997,14 +13013,14 @@
         <v>61.025000000000006</v>
       </c>
       <c r="L208" s="116">
-        <v>9.5574914298453745E-2</v>
+        <v>0.16191363815573065</v>
       </c>
       <c r="M208" s="116">
-        <v>8.3297440729846461E-2</v>
+        <v>0.14111434759454425</v>
       </c>
       <c r="N208" s="105">
         <f>(M208-M203)/M203*100</f>
-        <v>79.631213877335767</v>
+        <v>109.79743101249329</v>
       </c>
       <c r="P208" s="114">
         <f t="shared" si="47"/>
@@ -13019,14 +13035,14 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="S208" s="116">
-        <v>1.4486553192642367E-2</v>
+        <v>3.8456546819073407E-2</v>
       </c>
       <c r="T208" s="116">
-        <v>1.2625622683539442E-2</v>
+        <v>3.3516450973036946E-2</v>
       </c>
       <c r="U208" s="105">
         <f>(T208-T203)/T203*100</f>
-        <v>-81.867178488310458</v>
+        <v>-62.97318039398229</v>
       </c>
       <c r="W208" s="114">
         <f t="shared" si="48"/>
@@ -13041,14 +13057,14 @@
         <v>87.5</v>
       </c>
       <c r="Z208" s="116">
-        <v>4.6305910540684496E-2</v>
+        <v>7.0275904167115558E-2</v>
       </c>
       <c r="AA208" s="116">
-        <v>4.0357491994807287E-2</v>
+        <v>6.1248320284304818E-2</v>
       </c>
       <c r="AB208" s="105">
         <f>(AA208-AA203)/AA203*100</f>
-        <v>-12.968931427511137</v>
+        <v>-8.940937129951136</v>
       </c>
       <c r="AD208" s="114">
         <f t="shared" si="49"/>
@@ -13063,14 +13079,14 @@
         <v>10</v>
       </c>
       <c r="AG208" s="116">
-        <v>6.3995714202826112E-2</v>
+        <v>8.7965707829257181E-2</v>
       </c>
       <c r="AH208" s="116">
-        <v>5.5774878271173556E-2</v>
+        <v>7.6665706560671065E-2</v>
       </c>
       <c r="AI208" s="105">
         <f>(AH208-AH203)/AH203*100</f>
-        <v>20.278714447005221</v>
+        <v>13.980389360552101</v>
       </c>
       <c r="AK208" s="114">
         <f t="shared" si="50"/>
@@ -13085,14 +13101,14 @@
         <v>32.5</v>
       </c>
       <c r="AN208" s="116">
-        <v>7.9870097390948788E-2</v>
+        <v>0.10263065693583566</v>
       </c>
       <c r="AO208" s="116">
-        <v>7.3308939825013755E-2</v>
+        <v>9.4199768114511265E-2</v>
       </c>
       <c r="AP208" s="105">
         <f>(AO208-AO203)/AO203*100</f>
-        <v>58.09097774728302</v>
+        <v>40.048617941958383</v>
       </c>
       <c r="AR208" s="114">
         <f t="shared" si="51"/>
@@ -13107,14 +13123,14 @@
         <v>35</v>
       </c>
       <c r="AU208" s="116">
-        <v>5.7671078740460478E-2</v>
+        <v>7.1368217955563945E-2</v>
       </c>
       <c r="AV208" s="116">
-        <v>5.0262700191482504E-2</v>
+        <v>6.220031635690966E-2</v>
       </c>
       <c r="AW208" s="105">
         <f>(AV208-AV203)/AV203*100</f>
-        <v>8.3916836944726327</v>
+        <v>-7.5255861484879238</v>
       </c>
       <c r="AY208" s="114">
         <f t="shared" si="52"/>
@@ -13129,14 +13145,14 @@
         <v>92.5</v>
       </c>
       <c r="BB208" s="116">
-        <v>4.8398071008738233E-2</v>
+        <v>7.2368064635169288E-2</v>
       </c>
       <c r="BC208" s="116">
-        <v>4.218089527865259E-2</v>
+        <v>6.3071723568150106E-2</v>
       </c>
       <c r="BD208" s="105">
         <f>(BC208-BC203)/BC203*100</f>
-        <v>-9.0367560521914676</v>
+        <v>-6.2300481865417021</v>
       </c>
     </row>
     <row r="209" spans="2:56">
@@ -13153,14 +13169,14 @@
         <v>148000000</v>
       </c>
       <c r="E209" s="116">
-        <v>0.10510863721511229</v>
+        <v>0.12907863084154333</v>
       </c>
       <c r="F209" s="116">
-        <v>9.1606469572972429E-2</v>
+        <v>0.11249729786246995</v>
       </c>
       <c r="G209" s="105">
         <f>(F209-F203)/F203*100</f>
-        <v>97.549662801513946</v>
+        <v>67.251909460026681</v>
       </c>
       <c r="I209" s="114">
         <f t="shared" si="46"/>
@@ -13175,14 +13191,14 @@
         <v>68.820000000000007</v>
       </c>
       <c r="L209" s="116">
-        <v>0.1040486603446229</v>
+        <v>0.17886113024806896</v>
       </c>
       <c r="M209" s="116">
-        <v>9.0682656444886517E-2</v>
+        <v>0.15588477902462436</v>
       </c>
       <c r="N209" s="105">
         <f>(M209-M203)/M203*100</f>
-        <v>95.557456652802927</v>
+        <v>131.75691721499194</v>
       </c>
       <c r="P209" s="114">
         <f t="shared" si="47"/>
@@ -13197,14 +13213,14 @@
         <v>3.0000000000000006E-2</v>
       </c>
       <c r="S209" s="116">
-        <v>1.4055968159648045E-3</v>
+        <v>2.5375590442395832E-2</v>
       </c>
       <c r="T209" s="116">
-        <v>1.2250350243817423E-3</v>
+        <v>2.2115863313879242E-2</v>
       </c>
       <c r="U209" s="105">
         <f>(T209-T203)/T203*100</f>
-        <v>-98.240614185972547</v>
+        <v>-75.567816472778745</v>
       </c>
       <c r="W209" s="114">
         <f t="shared" si="48"/>
@@ -13219,14 +13235,14 @@
         <v>90</v>
       </c>
       <c r="Z209" s="116">
-        <v>4.4925855835299802E-2</v>
+        <v>6.8895849461730843E-2</v>
       </c>
       <c r="AA209" s="116">
-        <v>3.9154717962839494E-2</v>
+        <v>6.0045546252337011E-2</v>
       </c>
       <c r="AB209" s="105">
         <f>(AA209-AA203)/AA203*100</f>
-        <v>-15.562717713013384</v>
+        <v>-10.729124555941407</v>
       </c>
       <c r="AD209" s="114">
         <f t="shared" si="49"/>
@@ -13241,14 +13257,14 @@
         <v>11</v>
       </c>
       <c r="AG209" s="116">
-        <v>6.6419532000543569E-2</v>
+        <v>9.0389525626974623E-2</v>
       </c>
       <c r="AH209" s="116">
-        <v>5.7887334461454255E-2</v>
+        <v>7.8778162750951772E-2</v>
       </c>
       <c r="AI209" s="105">
         <f>(AH209-AH203)/AH203*100</f>
-        <v>24.834233396903137</v>
+        <v>17.121018852889176</v>
       </c>
       <c r="AK209" s="114">
         <f t="shared" si="50"/>
@@ -13263,14 +13279,14 @@
         <v>36</v>
       </c>
       <c r="AN209" s="116">
-        <v>8.5602100947571785E-2</v>
+        <v>0.10822796971933231</v>
       </c>
       <c r="AO209" s="116">
-        <v>7.90377956380591E-2</v>
+        <v>9.9928623927556581E-2</v>
       </c>
       <c r="AP209" s="105">
         <f>(AO209-AO203)/AO203*100</f>
-        <v>70.445274767801621</v>
+        <v>48.565818727744144</v>
       </c>
       <c r="AR209" s="114">
         <f t="shared" si="51"/>
@@ -13285,14 +13301,14 @@
         <v>38</v>
       </c>
       <c r="AU209" s="116">
-        <v>5.8141067653392338E-2</v>
+        <v>7.0756853772566575E-2</v>
       </c>
       <c r="AV209" s="116">
-        <v>5.0672314721675812E-2</v>
+        <v>6.1667487505621871E-2</v>
       </c>
       <c r="AW209" s="105">
         <f>(AV209-AV203)/AV203*100</f>
-        <v>9.2750188202066255</v>
+        <v>-8.3177531114866454</v>
       </c>
       <c r="AY209" s="114">
         <f t="shared" si="52"/>
@@ -13307,14 +13323,14 @@
         <v>94</v>
       </c>
       <c r="BB209" s="116">
-        <v>4.7528518647027777E-2</v>
+        <v>7.1498512273458797E-2</v>
       </c>
       <c r="BC209" s="116">
-        <v>4.142304488618568E-2</v>
+        <v>6.2313873175683161E-2</v>
       </c>
       <c r="BD209" s="105">
         <f>(BC209-BC203)/BC203*100</f>
-        <v>-10.67106299780052</v>
+        <v>-7.3567590287886313</v>
       </c>
     </row>
     <row r="210" spans="2:56">
@@ -13331,14 +13347,14 @@
         <v>161000000</v>
       </c>
       <c r="E210" s="116">
-        <v>0.11375904607302967</v>
+        <v>0.13772903969946074</v>
       </c>
       <c r="F210" s="116">
-        <v>9.9145654142693454E-2</v>
+        <v>0.12003648243219099</v>
       </c>
       <c r="G210" s="105">
         <f>(F210-F203)/F203*100</f>
-        <v>113.80793993509957</v>
+        <v>78.460561036697797</v>
       </c>
       <c r="I210" s="114">
         <f t="shared" si="46"/>
@@ -13353,14 +13369,14 @@
         <v>76.614999999999995</v>
       </c>
       <c r="L210" s="116">
-        <v>0.11252240639079206</v>
+        <v>0.1958086223404073</v>
       </c>
       <c r="M210" s="116">
-        <v>9.8067872159926558E-2</v>
+        <v>0.17065521045470447</v>
       </c>
       <c r="N210" s="105">
         <f>(M210-M203)/M203*100</f>
-        <v>111.48369942827007</v>
+        <v>153.71640341749062</v>
       </c>
       <c r="P210" s="114">
         <f t="shared" si="47"/>
@@ -13375,14 +13391,14 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="S210" s="116">
-        <v>-1.1675359560712747E-2</v>
+        <v>1.2294634065718294E-2</v>
       </c>
       <c r="T210" s="116">
-        <v>-1.0175552634775948E-2</v>
+        <v>1.071527565472156E-2</v>
       </c>
       <c r="U210" s="105">
         <f>(T210-T203)/T203*100</f>
-        <v>-114.61404988363464</v>
+        <v>-88.162452551575186</v>
       </c>
       <c r="W210" s="114">
         <f t="shared" si="48"/>
@@ -13397,14 +13413,14 @@
         <v>92.5</v>
       </c>
       <c r="Z210" s="116">
-        <v>4.3545801129915108E-2</v>
+        <v>6.751579475634617E-2</v>
       </c>
       <c r="AA210" s="116">
-        <v>3.7951943930871708E-2</v>
+        <v>5.8842772220369231E-2</v>
       </c>
       <c r="AB210" s="105">
         <f>(AA210-AA203)/AA203*100</f>
-        <v>-18.156503998515618</v>
+        <v>-12.517311981931636</v>
       </c>
       <c r="AD210" s="114">
         <f t="shared" si="49"/>
@@ -13419,14 +13435,14 @@
         <v>12</v>
       </c>
       <c r="AG210" s="116">
-        <v>6.8919167656527142E-2</v>
+        <v>9.2889161282958196E-2</v>
       </c>
       <c r="AH210" s="116">
-        <v>6.0065869011329036E-2</v>
+        <v>8.0956697300826552E-2</v>
       </c>
       <c r="AI210" s="105">
         <f>(AH210-AH203)/AH203*100</f>
-        <v>29.532250553719614</v>
+        <v>20.359888320995321</v>
       </c>
       <c r="AK210" s="114">
         <f t="shared" si="50"/>
@@ -13441,14 +13457,14 @@
         <v>39.5</v>
       </c>
       <c r="AN210" s="116">
-        <v>9.138786377161795E-2</v>
+        <v>0.11390012306855402</v>
       </c>
       <c r="AO210" s="116">
-        <v>8.4805711617611579E-2</v>
+        <v>0.10569653990710903</v>
       </c>
       <c r="AP210" s="105">
         <f>(AO210-AO203)/AO203*100</f>
-        <v>82.88380517007181</v>
+        <v>57.141091018857345</v>
       </c>
       <c r="AR210" s="114">
         <f t="shared" si="51"/>
@@ -13463,14 +13479,14 @@
         <v>41</v>
       </c>
       <c r="AU210" s="116">
-        <v>5.8542277701017081E-2</v>
+        <v>7.0234957518788305E-2</v>
       </c>
       <c r="AV210" s="116">
-        <v>5.1021985662084719E-2</v>
+        <v>6.121263360818105E-2</v>
       </c>
       <c r="AW210" s="105">
         <f>(AV210-AV203)/AV203*100</f>
-        <v>10.029085390955121</v>
+        <v>-8.9939932018514455</v>
       </c>
       <c r="AY210" s="114">
         <f t="shared" si="52"/>
@@ -13485,14 +13501,14 @@
         <v>95.5</v>
       </c>
       <c r="BB210" s="116">
-        <v>4.6686282066313436E-2</v>
+        <v>7.0656275692744491E-2</v>
       </c>
       <c r="BC210" s="116">
-        <v>4.0689001312330268E-2</v>
+        <v>6.1579829601827785E-2</v>
       </c>
       <c r="BD210" s="105">
         <f>(BC210-BC203)/BC203*100</f>
-        <v>-12.254030458207252</v>
+        <v>-8.448075813163868</v>
       </c>
     </row>
     <row r="211" spans="2:56">
@@ -13509,14 +13525,14 @@
         <v>174000000</v>
       </c>
       <c r="E211" s="116">
-        <v>0.12240945493094711</v>
+        <v>0.14637944855737811</v>
       </c>
       <c r="F211" s="116">
-        <v>0.10668483871241455</v>
+        <v>0.12757566700191197</v>
       </c>
       <c r="G211" s="105">
         <f>(F211-F203)/F203*100</f>
-        <v>130.06621706868535</v>
+        <v>89.669212613368813</v>
       </c>
       <c r="I211" s="114">
         <f t="shared" si="46"/>
@@ -13531,14 +13547,14 @@
         <v>84.41</v>
       </c>
       <c r="L211" s="116">
-        <v>0.12099615243696121</v>
+        <v>0.21275611443274559</v>
       </c>
       <c r="M211" s="116">
-        <v>0.10545308787496659</v>
+        <v>0.18542564188478453</v>
       </c>
       <c r="N211" s="105">
         <f>(M211-M203)/M203*100</f>
-        <v>127.40994220373719</v>
+        <v>175.67588961998919</v>
       </c>
       <c r="P211" s="114">
         <f t="shared" si="47"/>
@@ -13553,14 +13569,14 @@
         <v>0.04</v>
       </c>
       <c r="S211" s="116">
-        <v>-2.4756315937390284E-2</v>
+        <v>-7.8632231095924403E-4</v>
       </c>
       <c r="T211" s="116">
-        <v>-2.1576140293933621E-2</v>
+        <v>-6.8531200443611791E-4</v>
       </c>
       <c r="U211" s="105">
         <f>(T211-T203)/T203*100</f>
-        <v>-130.98748558129671</v>
+        <v>-100.75708863037163</v>
       </c>
       <c r="W211" s="114">
         <f t="shared" si="48"/>
@@ -13575,14 +13591,14 @@
         <v>95</v>
       </c>
       <c r="Z211" s="116">
-        <v>4.2165746424530436E-2</v>
+        <v>6.613574005096147E-2</v>
       </c>
       <c r="AA211" s="116">
-        <v>3.6749169898903936E-2</v>
+        <v>5.7639998188401431E-2</v>
       </c>
       <c r="AB211" s="105">
         <f>(AA211-AA203)/AA203*100</f>
-        <v>-20.750290284017822</v>
+        <v>-14.305499407921896</v>
       </c>
       <c r="AD211" s="114">
         <f t="shared" si="49"/>
@@ -13597,14 +13613,14 @@
         <v>13</v>
       </c>
       <c r="AG211" s="116">
-        <v>7.148915098814515E-2</v>
+        <v>9.5459144614576177E-2</v>
       </c>
       <c r="AH211" s="116">
-        <v>6.2305714433252765E-2</v>
+        <v>8.3196542722750261E-2</v>
       </c>
       <c r="AI211" s="105">
         <f>(AH211-AH203)/AH203*100</f>
-        <v>34.362484814369445</v>
+        <v>23.689909848890302</v>
       </c>
       <c r="AK211" s="114">
         <f t="shared" si="50"/>
@@ -13619,14 +13635,14 @@
         <v>43</v>
       </c>
       <c r="AN211" s="116">
-        <v>9.7210233907894364E-2</v>
+        <v>0.11962588319080399</v>
       </c>
       <c r="AO211" s="116">
-        <v>9.0597523137554273E-2</v>
+        <v>0.11148835142705173</v>
       </c>
       <c r="AP211" s="105">
         <f>(AO211-AO203)/AO203*100</f>
-        <v>95.373866386361485</v>
+        <v>65.751889272227288</v>
       </c>
       <c r="AR211" s="114">
         <f t="shared" si="51"/>
@@ -13641,14 +13657,14 @@
         <v>44</v>
       </c>
       <c r="AU211" s="116">
-        <v>5.8888777287602084E-2</v>
+        <v>6.9784228935979825E-2</v>
       </c>
       <c r="AV211" s="116">
-        <v>5.1323974201528774E-2</v>
+        <v>6.0819805242209445E-2</v>
       </c>
       <c r="AW211" s="105">
         <f>(AV211-AV203)/AV203*100</f>
-        <v>10.680324702056094</v>
+        <v>-9.5780187344392065</v>
       </c>
       <c r="AY211" s="114">
         <f t="shared" si="52"/>
@@ -13663,14 +13679,14 @@
         <v>97</v>
       </c>
       <c r="BB211" s="116">
-        <v>4.5870094039641811E-2</v>
+        <v>6.9840087666072845E-2</v>
       </c>
       <c r="BC211" s="116">
-        <v>3.997766011704771E-2</v>
+        <v>6.0868488406545213E-2</v>
       </c>
       <c r="BD211" s="105">
         <f>(BC211-BC203)/BC203*100</f>
-        <v>-13.788040162106546</v>
+        <v>-9.5056405320430244</v>
       </c>
     </row>
     <row r="212" spans="2:56">
@@ -13687,14 +13703,14 @@
         <v>187000000</v>
       </c>
       <c r="E212" s="116">
-        <v>0.1310598637888645</v>
+        <v>0.15502985741529554</v>
       </c>
       <c r="F212" s="116">
-        <v>0.11422402328213556</v>
+        <v>0.13511485157163308</v>
       </c>
       <c r="G212" s="105">
         <f>(F212-F203)/F203*100</f>
-        <v>146.32449420227096</v>
+        <v>100.87786419004003</v>
       </c>
       <c r="I212" s="114">
         <f t="shared" si="46"/>
@@ -13709,14 +13725,14 @@
         <v>92.204999999999998</v>
       </c>
       <c r="L212" s="116">
-        <v>0.12946989848313037</v>
+        <v>0.2297036065250839</v>
       </c>
       <c r="M212" s="116">
-        <v>0.11283830359000666</v>
+        <v>0.20019607331486466</v>
       </c>
       <c r="N212" s="105">
         <f>(M212-M203)/M203*100</f>
-        <v>143.33618497920435</v>
+        <v>197.63537582248787</v>
       </c>
       <c r="P212" s="114">
         <f t="shared" si="47"/>
@@ -13731,14 +13747,14 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="S212" s="116">
-        <v>-3.7837272314067839E-2</v>
+        <v>-1.3867278687636798E-2</v>
       </c>
       <c r="T212" s="116">
-        <v>-3.2976727953091318E-2</v>
+        <v>-1.2085899663593812E-2</v>
       </c>
       <c r="U212" s="105">
         <f>(T212-T203)/T203*100</f>
-        <v>-147.36092127895878</v>
+        <v>-113.3517247091681</v>
       </c>
       <c r="W212" s="114">
         <f t="shared" si="48"/>
@@ -13753,14 +13769,14 @@
         <v>97.5</v>
       </c>
       <c r="Z212" s="116">
-        <v>4.0785691719145749E-2</v>
+        <v>6.4755685345576783E-2</v>
       </c>
       <c r="AA212" s="116">
-        <v>3.5546395866936149E-2</v>
+        <v>5.6437224156433645E-2</v>
       </c>
       <c r="AB212" s="105">
         <f>(AA212-AA203)/AA203*100</f>
-        <v>-23.344076569520055</v>
+        <v>-16.093686833912134</v>
       </c>
       <c r="AD212" s="114">
         <f t="shared" si="49"/>
@@ -13775,14 +13791,14 @@
         <v>14</v>
       </c>
       <c r="AG212" s="116">
-        <v>7.4124150272038322E-2</v>
+        <v>9.8094143898469363E-2</v>
       </c>
       <c r="AH212" s="116">
-        <v>6.4602223912590379E-2</v>
+        <v>8.5493052202087902E-2</v>
       </c>
       <c r="AI212" s="105">
         <f>(AH212-AH203)/AH203*100</f>
-        <v>39.314915307307878</v>
+        <v>27.104174927344332</v>
       </c>
       <c r="AK212" s="114">
         <f t="shared" si="50"/>
@@ -13797,14 +13813,14 @@
         <v>46.5</v>
       </c>
       <c r="AN212" s="116">
-        <v>0.10305679576394723</v>
+        <v>0.12538960670591606</v>
       </c>
       <c r="AO212" s="116">
-        <v>9.6402635116770663E-2</v>
+        <v>0.11729346340626827</v>
       </c>
       <c r="AP212" s="105">
         <f>(AO212-AO203)/AO203*100</f>
-        <v>107.89261008825368</v>
+        <v>74.382461575752345</v>
       </c>
       <c r="AR212" s="114">
         <f t="shared" si="51"/>
@@ -13819,14 +13835,14 @@
         <v>47</v>
       </c>
       <c r="AU212" s="116">
-        <v>5.9191042884410301E-2</v>
+        <v>6.9391040172253296E-2</v>
       </c>
       <c r="AV212" s="116">
-        <v>5.1587411012533176E-2</v>
+        <v>6.0477125178276803E-2</v>
       </c>
       <c r="AW212" s="105">
         <f>(AV212-AV203)/AV203*100</f>
-        <v>11.248427079825055</v>
+        <v>-10.087487816058267</v>
       </c>
       <c r="AY212" s="114">
         <f t="shared" si="52"/>
@@ -13841,14 +13857,14 @@
         <v>98.5</v>
       </c>
       <c r="BB212" s="116">
-        <v>4.5078764531549013E-2</v>
+        <v>6.9048758157980075E-2</v>
       </c>
       <c r="BC212" s="116">
-        <v>3.9287984135834668E-2</v>
+        <v>6.0178812425332198E-2</v>
       </c>
       <c r="BD212" s="105">
         <f>(BC212-BC203)/BC203*100</f>
-        <v>-15.275328758272877</v>
+        <v>-10.530995157961339</v>
       </c>
     </row>
     <row r="213" spans="2:56" ht="12.75" thickBot="1">
@@ -13864,14 +13880,14 @@
         <v>200000000</v>
       </c>
       <c r="E213" s="128">
-        <v>0.13971027264678182</v>
+        <v>0.16368026627321289</v>
       </c>
       <c r="F213" s="128">
-        <v>0.12176320785185656</v>
+        <v>0.14265403614135408</v>
       </c>
       <c r="G213" s="106">
         <f>(F213-F203)/F203*100</f>
-        <v>162.58277133585653</v>
+        <v>112.08651576671109</v>
       </c>
       <c r="I213" s="125">
         <f t="shared" si="46"/>
@@ -13885,14 +13901,14 @@
         <v>100</v>
       </c>
       <c r="L213" s="128">
-        <v>0.13794364452929953</v>
+        <v>0.24665109861742221</v>
       </c>
       <c r="M213" s="128">
-        <v>0.12022351930504668</v>
+        <v>0.21496650474494472</v>
       </c>
       <c r="N213" s="106">
         <f>(M213-M203)/M203*100</f>
-        <v>159.26242775467145</v>
+        <v>219.59486202498644</v>
       </c>
       <c r="P213" s="125">
         <f t="shared" si="47"/>
@@ -13906,14 +13922,14 @@
         <v>0.05</v>
       </c>
       <c r="S213" s="128">
-        <v>-5.0918228690745401E-2</v>
+        <v>-2.694823506431435E-2</v>
       </c>
       <c r="T213" s="128">
-        <v>-4.4377315612249009E-2</v>
+        <v>-2.3486487322751499E-2</v>
       </c>
       <c r="U213" s="106">
         <f>(T213-T203)/T203*100</f>
-        <v>-163.73435697662089</v>
+        <v>-125.94636078796452</v>
       </c>
       <c r="W213" s="125">
         <f t="shared" si="48"/>
@@ -13927,14 +13943,14 @@
         <v>100</v>
       </c>
       <c r="Z213" s="128">
-        <v>3.9405637013761062E-2</v>
+        <v>6.337563064019211E-2</v>
       </c>
       <c r="AA213" s="128">
-        <v>3.434362183496837E-2</v>
+        <v>5.5234450124465879E-2</v>
       </c>
       <c r="AB213" s="106">
         <f>(AA213-AA203)/AA203*100</f>
-        <v>-25.937862855022274</v>
+        <v>-17.881874259902343</v>
       </c>
       <c r="AD213" s="125">
         <f t="shared" si="49"/>
@@ -13948,14 +13964,14 @@
         <v>15</v>
       </c>
       <c r="AG213" s="128">
-        <v>7.6819022116027008E-2</v>
+        <v>0.10078901574245806</v>
       </c>
       <c r="AH213" s="128">
-        <v>6.6950914773020592E-2</v>
+        <v>8.7841743062518116E-2</v>
       </c>
       <c r="AI213" s="106">
         <f>(AH213-AH203)/AH203*100</f>
-        <v>44.379875125821393</v>
+        <v>30.596019074734432</v>
       </c>
       <c r="AK213" s="125">
         <f t="shared" si="50"/>
@@ -13969,14 +13985,14 @@
         <v>50</v>
       </c>
       <c r="AN213" s="128">
-        <v>0.10891855435838958</v>
+        <v>0.13117975371587465</v>
       </c>
       <c r="AO213" s="128">
-        <v>0.10221366693238572</v>
+        <v>0.12310449522188321</v>
       </c>
       <c r="AP213" s="106">
         <f>(AO213-AO203)/AO203*100</f>
-        <v>120.424119937448</v>
+        <v>83.021835014594757</v>
       </c>
       <c r="AR213" s="125">
         <f t="shared" si="51"/>
@@ -13990,14 +14006,14 @@
         <v>50</v>
       </c>
       <c r="AU213" s="128">
-        <v>5.945703660960152E-2</v>
+        <v>6.9045034060173913E-2</v>
       </c>
       <c r="AV213" s="128">
-        <v>5.1819235406217044E-2</v>
+        <v>6.017556672201603E-2</v>
       </c>
       <c r="AW213" s="106">
         <f>(AV213-AV203)/AV203*100</f>
-        <v>11.748357172261731</v>
+        <v>-10.53582060788311</v>
       </c>
       <c r="AY213" s="125">
         <f t="shared" si="52"/>
@@ -14011,14 +14027,14 @@
         <v>100</v>
       </c>
       <c r="BB213" s="128">
-        <v>4.4311174908699007E-2</v>
+        <v>6.8281168535130041E-2</v>
       </c>
       <c r="BC213" s="128">
-        <v>3.8618998434058027E-2</v>
+        <v>5.9509826723555537E-2</v>
       </c>
       <c r="BD213" s="106">
         <f>(BC213-BC203)/BC203*100</f>
-        <v>-16.717998696554197</v>
+        <v>-11.525589145102161</v>
       </c>
     </row>
     <row r="214" spans="2:56">
